--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_010.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_010.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.24661717626896</v>
+        <v>18.4750243951959</v>
       </c>
       <c r="D2" t="n">
-        <v>46.1386645397254</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15.59879358972898</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>49.43626117563741</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.88722847557682</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.163659154749489</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.01420979520584</v>
+        <v>30.5653001621066</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>304.4832794491861</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>82.10557509626845</v>
       </c>
       <c r="L2" t="n">
-        <v>74.62955529569199</v>
+        <v>87.79315899508551</v>
       </c>
       <c r="M2" t="n">
-        <v>131.6216875337615</v>
+        <v>155.2698503313944</v>
       </c>
       <c r="N2" t="n">
-        <v>136.6698365119489</v>
+        <v>89.77442126540632</v>
       </c>
       <c r="O2" t="n">
-        <v>30.1621315086933</v>
+        <v>53.44334112332173</v>
       </c>
       <c r="P2" t="n">
-        <v>58.35012607555144</v>
+        <v>66.11957379639996</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.85769689205212</v>
+        <v>68.91771600964231</v>
       </c>
       <c r="R2" t="n">
-        <v>47.72289894922993</v>
+        <v>61.8435923593544</v>
       </c>
       <c r="S2" t="n">
-        <v>40.11969646826298</v>
+        <v>97.10599399409557</v>
       </c>
       <c r="T2" t="n">
-        <v>81.06238800206685</v>
+        <v>35.40876660897843</v>
       </c>
       <c r="U2" t="n">
-        <v>56.72646942159444</v>
+        <v>38.60635384965386</v>
       </c>
       <c r="V2" t="n">
-        <v>63.3053904842358</v>
+        <v>49.00351571722277</v>
       </c>
       <c r="W2" t="n">
-        <v>52.80723078452445</v>
+        <v>51.74507863590112</v>
       </c>
       <c r="X2" t="n">
-        <v>69.75217010500262</v>
+        <v>45.07246932756868</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.48407440658478</v>
+        <v>46.9667456218987</v>
       </c>
       <c r="Z2" t="n">
-        <v>53.84474284969801</v>
+        <v>60.89633728947667</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.10856872270807</v>
+        <v>127.4638861886739</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.03147417053634</v>
+        <v>58.01986893020116</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.9064437481062</v>
+        <v>167.6614484619992</v>
       </c>
       <c r="AD2" t="n">
-        <v>80.24355821866794</v>
+        <v>182.178298339102</v>
       </c>
       <c r="AE2" t="n">
-        <v>93.69700102012418</v>
+        <v>94.44229984802629</v>
       </c>
       <c r="AF2" t="n">
-        <v>143.7701268474164</v>
+        <v>50.74604070110981</v>
       </c>
       <c r="AG2" t="n">
-        <v>53.1363686485674</v>
+        <v>179.5776369020985</v>
       </c>
       <c r="AH2" t="n">
-        <v>91.44624563861242</v>
+        <v>27.8171278069013</v>
       </c>
       <c r="AI2" t="n">
-        <v>199.4804216130257</v>
+        <v>76.10176083780472</v>
       </c>
       <c r="AJ2" t="n">
-        <v>93.48450437934436</v>
+        <v>121.5884952831267</v>
       </c>
       <c r="AK2" t="n">
-        <v>37.21356502615953</v>
+        <v>76.8534169981112</v>
       </c>
       <c r="AL2" t="n">
-        <v>39.00599584495932</v>
+        <v>13.20910262732829</v>
       </c>
       <c r="AM2" t="n">
-        <v>42.13511722293867</v>
+        <v>21.48358831133653</v>
       </c>
       <c r="AN2" t="n">
-        <v>23.60646031336353</v>
+        <v>23.86590096305235</v>
       </c>
       <c r="AO2" t="n">
-        <v>29.91159127297605</v>
+        <v>41.76189105895963</v>
       </c>
       <c r="AP2" t="n">
-        <v>20.1757298296982</v>
+        <v>26.06519612505797</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29.95475961839279</v>
+        <v>34.38148825632639</v>
       </c>
       <c r="AR2" t="n">
-        <v>20.17340077297711</v>
+        <v>8.523397929408087</v>
       </c>
       <c r="AS2" t="n">
-        <v>19.61309061344764</v>
+        <v>20.03113902406949</v>
       </c>
       <c r="AT2" t="n">
-        <v>24.67196162580291</v>
+        <v>31.49615453843206</v>
       </c>
       <c r="AU2" t="n">
-        <v>17.37513830325996</v>
+        <v>31.98158419893536</v>
       </c>
       <c r="AV2" t="n">
-        <v>43.50225784342695</v>
+        <v>13.90375251349601</v>
       </c>
       <c r="AW2" t="n">
-        <v>14.29517218771347</v>
+        <v>14.71357941137203</v>
       </c>
       <c r="AX2" t="n">
-        <v>20.21679040905993</v>
+        <v>12.34946967788462</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.997341838394892</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.153670121767266</v>
+        <v>3.25208098629524</v>
       </c>
       <c r="E3" t="n">
-        <v>3.110561553064841</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3226616820402864</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.546680228433781</v>
+        <v>8.696940197599563</v>
       </c>
       <c r="I3" t="n">
-        <v>4.722138634038836</v>
+        <v>5.98148824707155</v>
       </c>
       <c r="J3" t="n">
-        <v>10.52358843615516</v>
+        <v>4.227140485269082</v>
       </c>
       <c r="K3" t="n">
-        <v>2.167753800281139</v>
+        <v>2.077913959607089</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4259512175847028</v>
+        <v>10.00594814989199</v>
       </c>
       <c r="M3" t="n">
-        <v>5.291854488520107</v>
+        <v>3.731302787385371</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9536446441015671</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.337832226967041</v>
+        <v>5.723019412659594</v>
       </c>
       <c r="P3" t="n">
-        <v>1.840117982593178</v>
+        <v>5.115102678112748</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.098443836588896</v>
+        <v>3.96930604577671</v>
       </c>
       <c r="R3" t="n">
-        <v>2.346606973210396</v>
+        <v>4.40319481745302</v>
       </c>
       <c r="S3" t="n">
-        <v>2.863710564911014</v>
+        <v>2.999567186980253</v>
       </c>
       <c r="T3" t="n">
-        <v>2.812240284779932</v>
+        <v>3.97231989478917</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62485801990783</v>
+        <v>1.258547392136878</v>
       </c>
       <c r="V3" t="n">
-        <v>2.633077376645185</v>
+        <v>4.582058486300606</v>
       </c>
       <c r="W3" t="n">
-        <v>3.437461656757312</v>
+        <v>8.220563758657175</v>
       </c>
       <c r="X3" t="n">
-        <v>3.03719530441384</v>
+        <v>4.788822896311608</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.414463941770488</v>
+        <v>5.7107580411749</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.069879485161836</v>
+        <v>4.552257682405592</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.559924388361699</v>
+        <v>6.327250802583521</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.958853676237136</v>
+        <v>3.027883356780217</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.811322246492213</v>
+        <v>2.728180159065252</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.475149716440729</v>
+        <v>7.443062488207635</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.475766720134315</v>
+        <v>7.003590778359891</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.864986212302256</v>
+        <v>4.591046120239408</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.806951774393184</v>
+        <v>6.088418242493816</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.904094053849462</v>
+        <v>1.987875903310426</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.965829512208522</v>
+        <v>0.651765781140863</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.183679237222037</v>
+        <v>5.845142657461202</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.514818866093971</v>
+        <v>3.854031361136276</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.733880693514882</v>
+        <v>2.827707535089766</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.609898134781942</v>
+        <v>5.01336500048051</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.167490841556459</v>
+        <v>2.11750503002968</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.505336529380729</v>
+        <v>1.442092694408084</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.635901732626039</v>
+        <v>5.137452670879731</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.656578475379964</v>
+        <v>9.120321385712176</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.27876080173577</v>
+        <v>2.550723016816527</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.449399313316597</v>
+        <v>2.304408438205131</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.475092585921395</v>
+        <v>3.202953614774722</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.567641496579474</v>
+        <v>5.372562438574882</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.257858120913232</v>
+        <v>4.523349911737959</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.406018282522295</v>
+        <v>5.755103536085926</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.672495898468948</v>
+        <v>2.544860535214968</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.48538998714953</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.032390294934481</v>
+        <v>22.88653146680581</v>
       </c>
       <c r="E4" t="n">
-        <v>17.08137905703257</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.09505952159105</v>
+        <v>6.282913952693527</v>
       </c>
       <c r="G4" t="n">
-        <v>23.28708411243262</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>126.2482660497382</v>
+        <v>15.12752048895768</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>63.93472993343686</v>
       </c>
       <c r="J4" t="n">
-        <v>190.2318986215032</v>
+        <v>64.50576930505066</v>
       </c>
       <c r="K4" t="n">
-        <v>151.1834905629458</v>
+        <v>31.29399106752562</v>
       </c>
       <c r="L4" t="n">
-        <v>15.26773764068866</v>
+        <v>19.11009434758492</v>
       </c>
       <c r="M4" t="n">
-        <v>83.89976402161346</v>
+        <v>77.03896423060013</v>
       </c>
       <c r="N4" t="n">
-        <v>52.0120947438194</v>
+        <v>94.71562803786118</v>
       </c>
       <c r="O4" t="n">
-        <v>10.66953023344233</v>
+        <v>62.41904014424336</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09711427152099</v>
+        <v>65.72522469415003</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.4636991833522</v>
+        <v>25.60739410604285</v>
       </c>
       <c r="R4" t="n">
-        <v>64.2249073085528</v>
+        <v>6.593589737059141</v>
       </c>
       <c r="S4" t="n">
-        <v>107.8735152008965</v>
+        <v>51.35002795497903</v>
       </c>
       <c r="T4" t="n">
-        <v>67.66658465082887</v>
+        <v>135.8853558507107</v>
       </c>
       <c r="U4" t="n">
-        <v>31.96254497644779</v>
+        <v>39.31077819291369</v>
       </c>
       <c r="V4" t="n">
-        <v>101.1655231772727</v>
+        <v>82.33613038066055</v>
       </c>
       <c r="W4" t="n">
-        <v>62.08877318099462</v>
+        <v>86.42682828149518</v>
       </c>
       <c r="X4" t="n">
-        <v>74.83798745977558</v>
+        <v>85.34691687008416</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.18781438893531</v>
+        <v>75.68494085373136</v>
       </c>
       <c r="Z4" t="n">
-        <v>76.75414656183465</v>
+        <v>46.55985097394568</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.96071857911961</v>
+        <v>35.04695049210062</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.50200734952608</v>
+        <v>78.44897202418272</v>
       </c>
       <c r="AC4" t="n">
-        <v>30.91087691722961</v>
+        <v>71.31591474057375</v>
       </c>
       <c r="AD4" t="n">
-        <v>44.39722725458275</v>
+        <v>37.32227193462735</v>
       </c>
       <c r="AE4" t="n">
-        <v>110.6234229290192</v>
+        <v>55.31044208170403</v>
       </c>
       <c r="AF4" t="n">
-        <v>51.51724603506671</v>
+        <v>35.57918843510627</v>
       </c>
       <c r="AG4" t="n">
-        <v>68.33780191740652</v>
+        <v>82.13836189286179</v>
       </c>
       <c r="AH4" t="n">
-        <v>109.9709995650162</v>
+        <v>39.72240796379636</v>
       </c>
       <c r="AI4" t="n">
-        <v>30.68761804135114</v>
+        <v>99.79271373654051</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70.84822361932706</v>
+        <v>53.94670652751468</v>
       </c>
       <c r="AK4" t="n">
-        <v>39.4438817089346</v>
+        <v>55.61552970324283</v>
       </c>
       <c r="AL4" t="n">
-        <v>26.13936392663812</v>
+        <v>6.178767072222843</v>
       </c>
       <c r="AM4" t="n">
-        <v>30.31409680631972</v>
+        <v>25.57131258391198</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.74787409293642</v>
+        <v>17.05642578011285</v>
       </c>
       <c r="AO4" t="n">
-        <v>22.38043009469557</v>
+        <v>26.65079547799235</v>
       </c>
       <c r="AP4" t="n">
-        <v>11.6200555647491</v>
+        <v>17.54160682019007</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18.63965164038708</v>
+        <v>22.68847978431294</v>
       </c>
       <c r="AR4" t="n">
-        <v>20.44694504398936</v>
+        <v>22.09603296431746</v>
       </c>
       <c r="AS4" t="n">
-        <v>9.045471265358698</v>
+        <v>14.78514185189643</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.920130345108799</v>
+        <v>7.577841027656422</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.920226076493718</v>
+        <v>7.270779403267341</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.11124593861166</v>
+        <v>5.495657926865999</v>
       </c>
       <c r="AW4" t="n">
-        <v>14.21888048203539</v>
+        <v>15.71391765018318</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.199835142251901</v>
+        <v>16.55245590817453</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>20.73950474193409</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.093677020877249</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.431379350955305</v>
+        <v>7.164989856169615</v>
       </c>
       <c r="F5" t="n">
-        <v>13.82203566747933</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.765280922158189</v>
+        <v>13.01368206132757</v>
       </c>
       <c r="H5" t="n">
-        <v>28.1030825368047</v>
+        <v>16.8977491019405</v>
       </c>
       <c r="I5" t="n">
-        <v>59.76039647091898</v>
+        <v>15.12299514411187</v>
       </c>
       <c r="J5" t="n">
-        <v>5.047213106255452</v>
+        <v>39.84257782772355</v>
       </c>
       <c r="K5" t="n">
-        <v>20.18131545857641</v>
+        <v>63.91810322048772</v>
       </c>
       <c r="L5" t="n">
-        <v>67.69610667391873</v>
+        <v>143.8337375899873</v>
       </c>
       <c r="M5" t="n">
-        <v>40.64863291289939</v>
+        <v>19.08851773120938</v>
       </c>
       <c r="N5" t="n">
-        <v>29.85571534157373</v>
+        <v>42.69899210852953</v>
       </c>
       <c r="O5" t="n">
-        <v>27.17243466399067</v>
+        <v>45.75499211124975</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>23.57951023873492</v>
       </c>
       <c r="Q5" t="n">
-        <v>38.71259021406269</v>
+        <v>148.2671985087975</v>
       </c>
       <c r="R5" t="n">
-        <v>35.07042110517018</v>
+        <v>20.82262430922395</v>
       </c>
       <c r="S5" t="n">
-        <v>53.82715178861805</v>
+        <v>31.75877450637669</v>
       </c>
       <c r="T5" t="n">
-        <v>39.90187534079659</v>
+        <v>41.15971366868951</v>
       </c>
       <c r="U5" t="n">
-        <v>128.7306433925927</v>
+        <v>16.37819881568369</v>
       </c>
       <c r="V5" t="n">
-        <v>33.66670679445425</v>
+        <v>53.19082231626439</v>
       </c>
       <c r="W5" t="n">
-        <v>42.97934150387481</v>
+        <v>48.05736433528568</v>
       </c>
       <c r="X5" t="n">
-        <v>9.219149615265104</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.80090466423771</v>
+        <v>35.11328981854298</v>
       </c>
       <c r="Z5" t="n">
-        <v>58.29389289447856</v>
+        <v>44.76238956314057</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.7682116437398</v>
+        <v>36.00228828280991</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.26439371797203</v>
+        <v>13.30588273572497</v>
       </c>
       <c r="AC5" t="n">
-        <v>43.74865232526977</v>
+        <v>25.58165448099892</v>
       </c>
       <c r="AD5" t="n">
-        <v>173.0878695517556</v>
+        <v>28.06244969124851</v>
       </c>
       <c r="AE5" t="n">
-        <v>73.96290133394837</v>
+        <v>16.46489949871858</v>
       </c>
       <c r="AF5" t="n">
-        <v>28.58544498820115</v>
+        <v>63.70033818131356</v>
       </c>
       <c r="AG5" t="n">
-        <v>22.59088183730893</v>
+        <v>23.14927660171779</v>
       </c>
       <c r="AH5" t="n">
-        <v>27.69007866101636</v>
+        <v>32.15394973330883</v>
       </c>
       <c r="AI5" t="n">
-        <v>29.32312439507315</v>
+        <v>45.80968798860668</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.0653210110394</v>
+        <v>9.138513311225553</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.38667117038815</v>
+        <v>22.06731918491495</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.30324117020742</v>
+        <v>20.03535114894924</v>
       </c>
       <c r="AM5" t="n">
-        <v>16.00637700485169</v>
+        <v>13.47470360962885</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.89052184669966</v>
+        <v>23.21244534373857</v>
       </c>
       <c r="AO5" t="n">
-        <v>27.9102019712703</v>
+        <v>0.5275008150660456</v>
       </c>
       <c r="AP5" t="n">
-        <v>35.751913720999</v>
+        <v>24.61846861887528</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28.35660768711504</v>
+        <v>27.05068935950509</v>
       </c>
       <c r="AR5" t="n">
-        <v>34.54880502673708</v>
+        <v>28.24074191812818</v>
       </c>
       <c r="AS5" t="n">
-        <v>31.68612510582846</v>
+        <v>20.20282038979705</v>
       </c>
       <c r="AT5" t="n">
-        <v>11.80244639613814</v>
+        <v>27.13368356202537</v>
       </c>
       <c r="AU5" t="n">
-        <v>21.0386796831049</v>
+        <v>26.80335663858605</v>
       </c>
       <c r="AV5" t="n">
-        <v>31.13678508399301</v>
+        <v>35.2093019492168</v>
       </c>
       <c r="AW5" t="n">
-        <v>24.21111799535902</v>
+        <v>23.77137785005015</v>
       </c>
       <c r="AX5" t="n">
-        <v>21.11143358673699</v>
+        <v>25.76226266849609</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6917468626673702</v>
+        <v>1.662150231953883</v>
       </c>
       <c r="D6" t="n">
-        <v>3.222342803141935</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.181128979647603</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.633819347165136</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.180015526401804</v>
+        <v>6.339205381922051</v>
       </c>
       <c r="H6" t="n">
-        <v>3.266092023821901</v>
+        <v>10.51652561233926</v>
       </c>
       <c r="I6" t="n">
-        <v>6.746858046111811</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>33.4344960858901</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>34.51927478770146</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8387585876347061</v>
+        <v>21.52463622618392</v>
       </c>
       <c r="M6" t="n">
-        <v>52.04165608744652</v>
+        <v>6.332078713224942</v>
       </c>
       <c r="N6" t="n">
-        <v>36.37320827598518</v>
+        <v>29.68063904499365</v>
       </c>
       <c r="O6" t="n">
-        <v>14.15808375543727</v>
+        <v>23.34806261012749</v>
       </c>
       <c r="P6" t="n">
-        <v>26.98063741170285</v>
+        <v>3.815027506731643</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.4205487062647</v>
+        <v>26.35397956880367</v>
       </c>
       <c r="R6" t="n">
-        <v>14.1464945850159</v>
+        <v>17.19729568707904</v>
       </c>
       <c r="S6" t="n">
-        <v>20.22833697047079</v>
+        <v>9.120416284453167</v>
       </c>
       <c r="T6" t="n">
-        <v>13.58320459237744</v>
+        <v>27.59406074397703</v>
       </c>
       <c r="U6" t="n">
-        <v>23.15480753844791</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>23.26943640407433</v>
+        <v>13.4177239633195</v>
       </c>
       <c r="W6" t="n">
-        <v>21.37057861743584</v>
+        <v>15.36724798581205</v>
       </c>
       <c r="X6" t="n">
-        <v>35.55665987014301</v>
+        <v>49.59905580145786</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.82589002951994</v>
+        <v>17.69855723452775</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.7719187827379</v>
+        <v>23.07484349946907</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.12390043032052</v>
+        <v>18.00067004883455</v>
       </c>
       <c r="AB6" t="n">
-        <v>35.92755747313571</v>
+        <v>24.07741257533734</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.22447492527734</v>
+        <v>4.530560380799955</v>
       </c>
       <c r="AD6" t="n">
-        <v>22.69869198264255</v>
+        <v>47.67852793185666</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.12254148138732</v>
+        <v>14.64850112142974</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.09099627464497</v>
+        <v>9.412891399572324</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.043433203285997</v>
+        <v>9.844315745047457</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.312986745150759</v>
+        <v>49.60842325421417</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.91033750556983</v>
+        <v>6.539840734591594</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.59016452268125</v>
+        <v>8.982332430326629</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.861865425402963</v>
+        <v>13.04973712884943</v>
       </c>
       <c r="AL6" t="n">
-        <v>14.33541950335474</v>
+        <v>7.979334685680866</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.530028705348363</v>
+        <v>1.608903752512929</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.444315167810376</v>
+        <v>2.501803898650913</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.013080676121634</v>
+        <v>2.636731852303597</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.971693677257211</v>
+        <v>1.557225325495897</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.373902823757732</v>
+        <v>3.217849963801971</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.229992019176181</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.03654739654641</v>
+        <v>1.420935987952829</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.082076454747517</v>
+        <v>1.519886859217133</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.187581269938026</v>
+        <v>2.174505862408533</v>
       </c>
       <c r="AV6" t="n">
-        <v>5.973906687274242</v>
+        <v>12.43494951660361</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.01465398721529831</v>
+        <v>2.503811168846544</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.259179714782982</v>
+        <v>2.208181930824392</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.5836394622851</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.451045811588568</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>16.75607943311383</v>
+        <v>19.33853931826463</v>
       </c>
       <c r="F7" t="n">
-        <v>15.90528858182451</v>
+        <v>3.027881976962178</v>
       </c>
       <c r="G7" t="n">
-        <v>1.350847413612819</v>
+        <v>43.51135748356639</v>
       </c>
       <c r="H7" t="n">
-        <v>37.76362571965347</v>
+        <v>9.847374524626005</v>
       </c>
       <c r="I7" t="n">
-        <v>42.82410885152564</v>
+        <v>20.43467667451022</v>
       </c>
       <c r="J7" t="n">
-        <v>20.72456862268181</v>
+        <v>12.43347764410095</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>66.48423915476434</v>
       </c>
       <c r="L7" t="n">
-        <v>82.91385902628924</v>
+        <v>9.372463138097022</v>
       </c>
       <c r="M7" t="n">
-        <v>17.73737096813514</v>
+        <v>96.10170112338332</v>
       </c>
       <c r="N7" t="n">
-        <v>13.08061428357422</v>
+        <v>32.89722361763314</v>
       </c>
       <c r="O7" t="n">
-        <v>37.90414127267501</v>
+        <v>16.69742585659774</v>
       </c>
       <c r="P7" t="n">
-        <v>27.65324802539119</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.223574923224383</v>
+        <v>31.31900411830225</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.6134029860603</v>
       </c>
       <c r="S7" t="n">
-        <v>30.60173367067835</v>
+        <v>28.13817773094758</v>
       </c>
       <c r="T7" t="n">
-        <v>16.38419002585707</v>
+        <v>11.8715349647327</v>
       </c>
       <c r="U7" t="n">
-        <v>19.21096923159568</v>
+        <v>22.5361993616378</v>
       </c>
       <c r="V7" t="n">
-        <v>150.6799333731602</v>
+        <v>20.84495820520451</v>
       </c>
       <c r="W7" t="n">
-        <v>35.9549694899309</v>
+        <v>17.92793056835091</v>
       </c>
       <c r="X7" t="n">
-        <v>19.52801787920649</v>
+        <v>3.749821963997176</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>104.3348216819192</v>
+        <v>12.20500238213675</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.43787830806292</v>
+        <v>8.173115332498538</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.883803290181957</v>
+        <v>3.356711135948393</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>14.2617286582707</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.953599882771169</v>
+        <v>35.2698874384554</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.248083205209845</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.213623650386188</v>
+        <v>19.92882843348971</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.12195337455726</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>25.22355819716057</v>
+        <v>31.95281146916573</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.732228478220165</v>
+        <v>45.01079371084926</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42.57940169396809</v>
+        <v>19.81263208372616</v>
       </c>
       <c r="AK7" t="n">
-        <v>28.90115287917438</v>
+        <v>7.949403069503125</v>
       </c>
       <c r="AL7" t="n">
-        <v>24.28420121073232</v>
+        <v>26.26808836420281</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.6447090677133311</v>
+        <v>1.865523571231191</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.22647972969948</v>
+        <v>9.085514872073865</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.7843841702132717</v>
+        <v>6.08758595210942</v>
       </c>
       <c r="AP7" t="n">
-        <v>7.814009311744145</v>
+        <v>9.841717245134157</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9.861364706023915</v>
+        <v>5.242390970071151</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0583115415810076</v>
+        <v>8.583414698220448</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.300987406332248</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>9.464953177057261</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>5.493233333170455</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.198396967323919</v>
+        <v>3.871196419632072</v>
       </c>
       <c r="AW7" t="n">
-        <v>11.49398403108863</v>
+        <v>4.091346266818623</v>
       </c>
       <c r="AX7" t="n">
-        <v>12.05385157930833</v>
+        <v>4.954813890078308</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.51398756975751</v>
+        <v>20.62669813419843</v>
       </c>
       <c r="D8" t="n">
-        <v>30.16048267908302</v>
+        <v>10.9104634452073</v>
       </c>
       <c r="E8" t="n">
-        <v>29.39294409677922</v>
+        <v>25.05189688219525</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9732289678781</v>
+        <v>3.457440488011098</v>
       </c>
       <c r="G8" t="n">
-        <v>28.27457652966778</v>
+        <v>33.34230857892854</v>
       </c>
       <c r="H8" t="n">
-        <v>29.42469837226403</v>
+        <v>19.65934080648275</v>
       </c>
       <c r="I8" t="n">
-        <v>33.28649922794403</v>
+        <v>49.01718334593485</v>
       </c>
       <c r="J8" t="n">
-        <v>30.43417954573078</v>
+        <v>100.9525781042674</v>
       </c>
       <c r="K8" t="n">
-        <v>86.01133553709018</v>
+        <v>33.24739813631266</v>
       </c>
       <c r="L8" t="n">
-        <v>94.01577334927865</v>
+        <v>18.50839244699646</v>
       </c>
       <c r="M8" t="n">
-        <v>85.95603588935788</v>
+        <v>118.1331161667511</v>
       </c>
       <c r="N8" t="n">
-        <v>56.94872549403539</v>
+        <v>25.78028210115538</v>
       </c>
       <c r="O8" t="n">
-        <v>10.56974197119613</v>
+        <v>49.48996665413942</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8525297488777994</v>
+        <v>110.7944028310612</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.19911641004688</v>
+        <v>49.34711104207614</v>
       </c>
       <c r="R8" t="n">
-        <v>65.02132529411381</v>
+        <v>17.2337636737946</v>
       </c>
       <c r="S8" t="n">
-        <v>48.41317270989384</v>
+        <v>68.18517997711558</v>
       </c>
       <c r="T8" t="n">
-        <v>64.09849791209353</v>
+        <v>83.99102748828815</v>
       </c>
       <c r="U8" t="n">
-        <v>46.00792154996492</v>
+        <v>109.2409150821861</v>
       </c>
       <c r="V8" t="n">
-        <v>134.1751967050853</v>
+        <v>72.50466925087466</v>
       </c>
       <c r="W8" t="n">
-        <v>125.8941928241711</v>
+        <v>33.58349722677391</v>
       </c>
       <c r="X8" t="n">
-        <v>19.0407271731298</v>
+        <v>57.16549483776762</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.06273991753146</v>
+        <v>168.1447212580891</v>
       </c>
       <c r="Z8" t="n">
-        <v>64.48696573864306</v>
+        <v>86.87260212146973</v>
       </c>
       <c r="AA8" t="n">
-        <v>49.13862864723417</v>
+        <v>112.0535198279134</v>
       </c>
       <c r="AB8" t="n">
-        <v>131.8545252887212</v>
+        <v>56.744879049791</v>
       </c>
       <c r="AC8" t="n">
-        <v>135.3688295918028</v>
+        <v>115.8247224865005</v>
       </c>
       <c r="AD8" t="n">
-        <v>137.4082750989585</v>
+        <v>84.13106437236097</v>
       </c>
       <c r="AE8" t="n">
-        <v>68.91863153883064</v>
+        <v>192.5897712104996</v>
       </c>
       <c r="AF8" t="n">
-        <v>172.2262203912184</v>
+        <v>85.87617391751556</v>
       </c>
       <c r="AG8" t="n">
-        <v>125.6418057018198</v>
+        <v>122.3388464759037</v>
       </c>
       <c r="AH8" t="n">
-        <v>56.36914153018711</v>
+        <v>150.1312022569797</v>
       </c>
       <c r="AI8" t="n">
-        <v>69.26989585599301</v>
+        <v>82.65172563113779</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42.80635550872927</v>
+        <v>62.33606633190134</v>
       </c>
       <c r="AK8" t="n">
-        <v>96.52638801736927</v>
+        <v>146.9521703527647</v>
       </c>
       <c r="AL8" t="n">
-        <v>45.90086057036959</v>
+        <v>77.20076420341033</v>
       </c>
       <c r="AM8" t="n">
-        <v>41.62024795182646</v>
+        <v>39.7631474822288</v>
       </c>
       <c r="AN8" t="n">
-        <v>43.52096480889888</v>
+        <v>30.11770295191321</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.77206633758349</v>
+        <v>26.26109465513894</v>
       </c>
       <c r="AP8" t="n">
-        <v>25.02498347229898</v>
+        <v>23.1027164607559</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29.63108676459677</v>
+        <v>24.44227157226838</v>
       </c>
       <c r="AR8" t="n">
-        <v>69.6981925785478</v>
+        <v>28.34250840531135</v>
       </c>
       <c r="AS8" t="n">
-        <v>19.27776900722957</v>
+        <v>19.33964460412773</v>
       </c>
       <c r="AT8" t="n">
-        <v>19.93414578754394</v>
+        <v>25.23136013845885</v>
       </c>
       <c r="AU8" t="n">
-        <v>26.46076837377783</v>
+        <v>24.02906764923836</v>
       </c>
       <c r="AV8" t="n">
-        <v>17.94118176183316</v>
+        <v>26.11104683472885</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.55156169136335</v>
+        <v>17.7673074639374</v>
       </c>
       <c r="AX8" t="n">
-        <v>10.98158731406636</v>
+        <v>23.15677546458122</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.764152131496101</v>
+        <v>2.216880099402892</v>
       </c>
       <c r="D9" t="n">
-        <v>3.660683290118885</v>
+        <v>1.791033609150887</v>
       </c>
       <c r="E9" t="n">
-        <v>6.005078527910785</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.098153442612041</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1660017537274208</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.264886855712656</v>
+        <v>1.383253172659167</v>
       </c>
       <c r="I9" t="n">
-        <v>2.328641038024867</v>
+        <v>6.970283723438947</v>
       </c>
       <c r="J9" t="n">
-        <v>12.13546469093252</v>
+        <v>11.26239451882494</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6684720093377033</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.984772873634913</v>
       </c>
       <c r="M9" t="n">
-        <v>4.09882026941121</v>
+        <v>3.558847525624841</v>
       </c>
       <c r="N9" t="n">
-        <v>6.039316916317029</v>
+        <v>12.73074264374359</v>
       </c>
       <c r="O9" t="n">
-        <v>5.25368322363365</v>
+        <v>2.627263762408931</v>
       </c>
       <c r="P9" t="n">
-        <v>3.167942729324599</v>
+        <v>7.962314867007538</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.472446882512819</v>
+        <v>3.357872984724843</v>
       </c>
       <c r="R9" t="n">
-        <v>2.686607575588395</v>
+        <v>4.474279433526933</v>
       </c>
       <c r="S9" t="n">
-        <v>8.616269510747934</v>
+        <v>6.920712764209089</v>
       </c>
       <c r="T9" t="n">
-        <v>3.577471705537548</v>
+        <v>2.530808698566624</v>
       </c>
       <c r="U9" t="n">
-        <v>9.23093541079079</v>
+        <v>3.620601428091628</v>
       </c>
       <c r="V9" t="n">
-        <v>3.900039321109198</v>
+        <v>1.20117427089386</v>
       </c>
       <c r="W9" t="n">
-        <v>10.91897162934388</v>
+        <v>2.638697156651735</v>
       </c>
       <c r="X9" t="n">
-        <v>3.253618214509193</v>
+        <v>3.931358171085239</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.124146996036949</v>
+        <v>3.74971484333942</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.31011710659832</v>
+        <v>2.358893676775554</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.819945088006385</v>
+        <v>4.333719579553799</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.538652236798008</v>
+        <v>4.353860456901756</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.15649464620293</v>
+        <v>6.463828091314327</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.480075253323257</v>
+        <v>6.665395468337048</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.528868415782861</v>
+        <v>2.752530972810525</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.261259120354782</v>
+        <v>7.381137378364264</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.66383864499149</v>
+        <v>3.336521764365425</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.629386522028745</v>
+        <v>7.572777663268337</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.979122059656945</v>
+        <v>1.705917042121139</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.129529836231999</v>
+        <v>6.741227238807505</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.223157904724654</v>
+        <v>1.937725559772771</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.905112460837347</v>
+        <v>4.66526131933087</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.732536389945337</v>
+        <v>4.148855001054751</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.016598648082983</v>
+        <v>3.21271915069268</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.959542252970309</v>
+        <v>3.103421017921035</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.921097493791836</v>
+        <v>1.79687285425378</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.992195000626308</v>
+        <v>1.104162796166866</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.038208550635788</v>
+        <v>2.409787074033573</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.622471489592239</v>
+        <v>2.944267364994055</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.126880813370184</v>
+        <v>3.632137348251192</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.653717815532285</v>
+        <v>3.180678373594301</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.663084096723128</v>
+        <v>3.223538304620641</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.65779632428137</v>
+        <v>2.81930649238902</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.908419841960861</v>
+        <v>2.909049660916704</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>6.925768931616595</v>
+        <v>18.0067837338418</v>
       </c>
       <c r="D10" t="n">
-        <v>3.433789905634808</v>
+        <v>8.282853738084851</v>
       </c>
       <c r="E10" t="n">
-        <v>25.6054648578852</v>
+        <v>35.7767129786864</v>
       </c>
       <c r="F10" t="n">
-        <v>11.28102301513142</v>
+        <v>0.4383585797769358</v>
       </c>
       <c r="G10" t="n">
-        <v>28.69189354302616</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>21.91597587688577</v>
+        <v>3.890465604783037</v>
       </c>
       <c r="I10" t="n">
-        <v>147.8332094916564</v>
+        <v>41.98895711570147</v>
       </c>
       <c r="J10" t="n">
-        <v>32.44196984134458</v>
+        <v>23.8182408318726</v>
       </c>
       <c r="K10" t="n">
-        <v>20.14430505172044</v>
+        <v>92.39649089497053</v>
       </c>
       <c r="L10" t="n">
-        <v>21.14263986144549</v>
+        <v>47.07344855891643</v>
       </c>
       <c r="M10" t="n">
-        <v>108.6473322485419</v>
+        <v>79.32535897032173</v>
       </c>
       <c r="N10" t="n">
-        <v>198.4333950684732</v>
+        <v>10.00248210457253</v>
       </c>
       <c r="O10" t="n">
-        <v>81.5942394193989</v>
+        <v>215.8111785033492</v>
       </c>
       <c r="P10" t="n">
-        <v>1.083493149651986</v>
+        <v>71.39171612562123</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.46110290582764</v>
+        <v>44.87875776815991</v>
       </c>
       <c r="R10" t="n">
-        <v>68.42116479960764</v>
+        <v>202.1961203817214</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0786349961616</v>
+        <v>67.35778691434905</v>
       </c>
       <c r="T10" t="n">
-        <v>278.754161500346</v>
+        <v>102.6121437841143</v>
       </c>
       <c r="U10" t="n">
-        <v>123.6358473144675</v>
+        <v>93.32606402923878</v>
       </c>
       <c r="V10" t="n">
-        <v>35.53837608021086</v>
+        <v>117.3279870641837</v>
       </c>
       <c r="W10" t="n">
-        <v>23.99274235753539</v>
+        <v>44.56215998506323</v>
       </c>
       <c r="X10" t="n">
-        <v>72.31332222342729</v>
+        <v>109.9238682930635</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.58618194653809</v>
+        <v>27.7718438848726</v>
       </c>
       <c r="Z10" t="n">
-        <v>53.06063617021801</v>
+        <v>40.82134930204998</v>
       </c>
       <c r="AA10" t="n">
-        <v>61.24952281112537</v>
+        <v>61.6873300536683</v>
       </c>
       <c r="AB10" t="n">
-        <v>47.52779357538685</v>
+        <v>42.59796404589962</v>
       </c>
       <c r="AC10" t="n">
-        <v>53.98728868689409</v>
+        <v>93.20033467431055</v>
       </c>
       <c r="AD10" t="n">
-        <v>91.89551824091208</v>
+        <v>25.53333897905624</v>
       </c>
       <c r="AE10" t="n">
-        <v>54.53618679719089</v>
+        <v>95.65574860945262</v>
       </c>
       <c r="AF10" t="n">
-        <v>54.14170341015749</v>
+        <v>41.46738040541108</v>
       </c>
       <c r="AG10" t="n">
-        <v>50.70320281177537</v>
+        <v>68.43558960447606</v>
       </c>
       <c r="AH10" t="n">
-        <v>60.02978254022006</v>
+        <v>35.04983851682065</v>
       </c>
       <c r="AI10" t="n">
-        <v>54.98994161960895</v>
+        <v>71.12148347662968</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25.2049747113355</v>
+        <v>26.02940857138863</v>
       </c>
       <c r="AK10" t="n">
-        <v>28.65824628562698</v>
+        <v>81.14844896171027</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.064166301248072</v>
+        <v>50.91387769421999</v>
       </c>
       <c r="AM10" t="n">
-        <v>27.0263782900874</v>
+        <v>51.2221199767088</v>
       </c>
       <c r="AN10" t="n">
-        <v>19.81097024190738</v>
+        <v>7.821430529113405</v>
       </c>
       <c r="AO10" t="n">
-        <v>26.64935093607205</v>
+        <v>21.10712749330699</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.91136488726385</v>
+        <v>16.40891192484073</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14.07513289050247</v>
+        <v>24.44433617915306</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.96784516939903</v>
+        <v>13.57753971892205</v>
       </c>
       <c r="AS10" t="n">
-        <v>5.569377208300549</v>
+        <v>17.36982534045612</v>
       </c>
       <c r="AT10" t="n">
-        <v>10.57019623161741</v>
+        <v>18.73201331146444</v>
       </c>
       <c r="AU10" t="n">
-        <v>11.38933055047128</v>
+        <v>9.672419026041887</v>
       </c>
       <c r="AV10" t="n">
-        <v>10.67095045728723</v>
+        <v>9.18746830429858</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.486257850483851</v>
+        <v>7.593825812199361</v>
       </c>
       <c r="AX10" t="n">
-        <v>18.82244114076735</v>
+        <v>24.83311869842828</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>12.06707535728376</v>
+        <v>23.07279787324174</v>
       </c>
       <c r="D11" t="n">
-        <v>17.96880028830733</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>14.41700509642628</v>
+        <v>15.28472370504821</v>
       </c>
       <c r="F11" t="n">
-        <v>29.17522021651045</v>
+        <v>19.85619351787587</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>10.96747974528617</v>
       </c>
       <c r="H11" t="n">
-        <v>15.10008756295892</v>
+        <v>43.38884076818292</v>
       </c>
       <c r="I11" t="n">
-        <v>7.898120748802476</v>
+        <v>20.26472843935361</v>
       </c>
       <c r="J11" t="n">
-        <v>141.6400485877563</v>
+        <v>12.79648567713118</v>
       </c>
       <c r="K11" t="n">
-        <v>17.83360474562648</v>
+        <v>29.50115495279063</v>
       </c>
       <c r="L11" t="n">
-        <v>43.93014002410422</v>
+        <v>35.62454747071787</v>
       </c>
       <c r="M11" t="n">
-        <v>186.3490694155329</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>234.4764422708318</v>
+        <v>24.84354751172928</v>
       </c>
       <c r="O11" t="n">
-        <v>31.68502268616833</v>
+        <v>20.65296345230548</v>
       </c>
       <c r="P11" t="n">
-        <v>36.14163063419655</v>
+        <v>76.72330502988598</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.33153353042711</v>
+        <v>98.32962007257453</v>
       </c>
       <c r="R11" t="n">
-        <v>21.60908821769158</v>
+        <v>95.78160297157243</v>
       </c>
       <c r="S11" t="n">
-        <v>36.12710351806432</v>
+        <v>13.25808643639451</v>
       </c>
       <c r="T11" t="n">
-        <v>21.07732202967028</v>
+        <v>21.42665667296504</v>
       </c>
       <c r="U11" t="n">
-        <v>40.87038335393069</v>
+        <v>81.76733853076317</v>
       </c>
       <c r="V11" t="n">
-        <v>53.99319013562955</v>
+        <v>62.19436726963335</v>
       </c>
       <c r="W11" t="n">
-        <v>67.53070814550986</v>
+        <v>15.32333556623817</v>
       </c>
       <c r="X11" t="n">
-        <v>34.18130239856237</v>
+        <v>23.61871964352008</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.20528983468222</v>
+        <v>53.67944597437224</v>
       </c>
       <c r="Z11" t="n">
-        <v>31.24028035642578</v>
+        <v>54.38175613742865</v>
       </c>
       <c r="AA11" t="n">
-        <v>48.01793335075248</v>
+        <v>51.24980325939214</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.09295732357639</v>
+        <v>42.99306457230042</v>
       </c>
       <c r="AC11" t="n">
-        <v>27.23423281783161</v>
+        <v>75.33006191817479</v>
       </c>
       <c r="AD11" t="n">
-        <v>43.78562275694179</v>
+        <v>30.28233038925291</v>
       </c>
       <c r="AE11" t="n">
-        <v>20.75803656060899</v>
+        <v>32.27540381709402</v>
       </c>
       <c r="AF11" t="n">
-        <v>96.77204023923576</v>
+        <v>38.05187098610885</v>
       </c>
       <c r="AG11" t="n">
-        <v>27.30215655590865</v>
+        <v>35.39704550499597</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.993149883599616</v>
+        <v>25.87368381245429</v>
       </c>
       <c r="AI11" t="n">
-        <v>20.45333855933448</v>
+        <v>27.36145648949124</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38.09096150416293</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.50547099869183</v>
+        <v>33.38727804015669</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>26.82350280673876</v>
+        <v>24.84733674862784</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.76454961823581</v>
+        <v>18.06191363242679</v>
       </c>
       <c r="AO11" t="n">
-        <v>36.3987025905861</v>
+        <v>30.8716379043912</v>
       </c>
       <c r="AP11" t="n">
-        <v>13.18440300362987</v>
+        <v>4.866411710286569</v>
       </c>
       <c r="AQ11" t="n">
-        <v>48.76843880542175</v>
+        <v>8.783827650241596</v>
       </c>
       <c r="AR11" t="n">
-        <v>9.861189542071447</v>
+        <v>30.9125231035963</v>
       </c>
       <c r="AS11" t="n">
-        <v>26.25805224123487</v>
+        <v>24.47129605575711</v>
       </c>
       <c r="AT11" t="n">
-        <v>23.61757859576559</v>
+        <v>25.81692024551174</v>
       </c>
       <c r="AU11" t="n">
-        <v>28.34114118984969</v>
+        <v>26.4362449400627</v>
       </c>
       <c r="AV11" t="n">
-        <v>6.119041308143939</v>
+        <v>31.93278829202924</v>
       </c>
       <c r="AW11" t="n">
-        <v>31.99007595431504</v>
+        <v>21.08053632565643</v>
       </c>
       <c r="AX11" t="n">
-        <v>27.96641494795975</v>
+        <v>19.27418536506086</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.691130713073668</v>
+        <v>1.546872965735258</v>
       </c>
       <c r="D12" t="n">
-        <v>3.05018495857227</v>
+        <v>4.729436034147467</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.69364162370139</v>
+        <v>13.06403400970526</v>
       </c>
       <c r="G12" t="n">
-        <v>4.514058981654367</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.559202239804961</v>
+        <v>9.336703722599346</v>
       </c>
       <c r="I12" t="n">
-        <v>33.47976859706719</v>
+        <v>2.410126090712161</v>
       </c>
       <c r="J12" t="n">
-        <v>16.12937198575012</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7.825655455062456</v>
       </c>
       <c r="L12" t="n">
-        <v>27.48415502873047</v>
+        <v>0.4849613584916646</v>
       </c>
       <c r="M12" t="n">
-        <v>17.87525916561</v>
+        <v>8.830954811162199</v>
       </c>
       <c r="N12" t="n">
-        <v>28.61531089607464</v>
+        <v>27.21314380903634</v>
       </c>
       <c r="O12" t="n">
-        <v>43.06321295544238</v>
+        <v>32.08729567157294</v>
       </c>
       <c r="P12" t="n">
-        <v>17.14657744293773</v>
+        <v>17.63617146464028</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.43780901299761</v>
+        <v>9.78936036414339</v>
       </c>
       <c r="R12" t="n">
-        <v>47.026514013723</v>
+        <v>20.88495708308658</v>
       </c>
       <c r="S12" t="n">
-        <v>6.520616035191341</v>
+        <v>24.80142008014381</v>
       </c>
       <c r="T12" t="n">
-        <v>14.97307173041939</v>
+        <v>29.92836292333639</v>
       </c>
       <c r="U12" t="n">
-        <v>20.22255473046964</v>
+        <v>22.31769714708402</v>
       </c>
       <c r="V12" t="n">
-        <v>7.309711236115606</v>
+        <v>39.81203305655806</v>
       </c>
       <c r="W12" t="n">
-        <v>24.07240810381656</v>
+        <v>15.91049187654145</v>
       </c>
       <c r="X12" t="n">
-        <v>19.31311641118739</v>
+        <v>27.96204121230169</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.573248551183887</v>
+        <v>12.29855227694385</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.50444520236441</v>
+        <v>9.176187544841373</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.436544343162687</v>
+        <v>20.15564599575123</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.48163181438167</v>
+        <v>19.84526989632788</v>
       </c>
       <c r="AC12" t="n">
-        <v>16.19457139598298</v>
+        <v>16.52843754906331</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.92201942307615</v>
+        <v>7.767781685065882</v>
       </c>
       <c r="AE12" t="n">
-        <v>29.57162742663143</v>
+        <v>7.879541168363688</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.51887305176657</v>
+        <v>18.62790249448287</v>
       </c>
       <c r="AG12" t="n">
-        <v>22.87735846412531</v>
+        <v>18.5534262382749</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.9355740097837</v>
+        <v>2.266381553535893</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.98959579520798</v>
+        <v>9.106603593819942</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24.79275674931858</v>
+        <v>8.36913304625544</v>
       </c>
       <c r="AK12" t="n">
-        <v>10.53586927581917</v>
+        <v>11.07004308785133</v>
       </c>
       <c r="AL12" t="n">
-        <v>16.40768136698997</v>
+        <v>6.861821282233789</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.744118826195512</v>
+        <v>8.104945231950383</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.664461784811976</v>
+        <v>2.279452497157445</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.62081094757726</v>
+        <v>2.99667894023537</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.344744919081434</v>
+        <v>5.818490124090379</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.316228829033852</v>
+        <v>0.4594135002036652</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.374339753936089</v>
+        <v>0.166789797539397</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.88060990161822</v>
+        <v>2.549177357393958</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.730646732073744</v>
+        <v>1.504210337509168</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.725284573170567</v>
+        <v>6.79817752481727</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.957853410534095</v>
+        <v>1.320392832987197</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>0.3702408106269611</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.540331360531335</v>
+        <v>2.940569540175784</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>76.66827109667857</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.664457006991997</v>
+        <v>10.8175667084329</v>
       </c>
       <c r="E13" t="n">
-        <v>8.235303345139679</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.952494721477587</v>
+        <v>10.3329575491782</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>30.36084208623495</v>
       </c>
       <c r="H13" t="n">
-        <v>16.65497088351425</v>
+        <v>16.59069330649283</v>
       </c>
       <c r="I13" t="n">
-        <v>117.1100882150707</v>
+        <v>10.46986151420454</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.38800509106849</v>
       </c>
       <c r="K13" t="n">
-        <v>113.3993444841874</v>
+        <v>59.48362229380086</v>
       </c>
       <c r="L13" t="n">
-        <v>27.13701928504905</v>
+        <v>21.37488749790956</v>
       </c>
       <c r="M13" t="n">
-        <v>17.90756785989124</v>
+        <v>80.33019028298628</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>40.01799276398516</v>
+        <v>6.056181504677959</v>
       </c>
       <c r="P13" t="n">
-        <v>36.19127595380882</v>
+        <v>6.391340034844403</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.64382559217453</v>
+        <v>125.2680522517242</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.41055774668513</v>
       </c>
       <c r="S13" t="n">
-        <v>46.05270201257934</v>
+        <v>19.38486430359251</v>
       </c>
       <c r="T13" t="n">
-        <v>4.721954755305929</v>
+        <v>65.49625466750742</v>
       </c>
       <c r="U13" t="n">
-        <v>23.99018670491077</v>
+        <v>24.3350700018463</v>
       </c>
       <c r="V13" t="n">
-        <v>50.25498742705347</v>
+        <v>33.88378935622507</v>
       </c>
       <c r="W13" t="n">
-        <v>2.858501352903251</v>
+        <v>71.1353938941111</v>
       </c>
       <c r="X13" t="n">
-        <v>24.20002835064026</v>
+        <v>13.64989609213388</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07873755519752</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.56698664805383</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.510849523969972</v>
+        <v>54.46857935154545</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.522611449484348</v>
+        <v>0.8789646210807454</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.78561015329528</v>
+        <v>23.15906285100747</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.69835529044855</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>33.27227296208342</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.137472273048081</v>
+        <v>7.099127069173421</v>
       </c>
       <c r="AG13" t="n">
-        <v>30.62890983579049</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.442440754488664</v>
+        <v>12.60445943563105</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.6660507076657101</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.460963364157426</v>
+        <v>6.585412481352467</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.1750154840498</v>
+        <v>26.63212700731481</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.7632266274946917</v>
+        <v>4.139517864906323</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.232147597231725</v>
+        <v>2.887148777293396</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.992482960111371</v>
+        <v>2.757336293565635</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.52303957676601</v>
+        <v>11.29826217598491</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.187134412533605</v>
+        <v>3.335392429355634</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.290937193154605</v>
+        <v>15.48552657073661</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>5.33001743187443</v>
       </c>
       <c r="AS13" t="n">
-        <v>8.846894964214233</v>
+        <v>16.15870180133201</v>
       </c>
       <c r="AT13" t="n">
-        <v>13.46823506887105</v>
+        <v>0.1352447497737255</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.535942353374173</v>
+        <v>5.622638382244938</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>12.80651448407297</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.413612341508171</v>
+        <v>12.62433426901046</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.552992112847603</v>
+        <v>22.65520611457752</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>10.14405730027735</v>
+        <v>18.6166799944725</v>
       </c>
       <c r="D14" t="n">
-        <v>20.68829821610028</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>15.62158172351264</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>64.35675773497979</v>
+        <v>34.17996200000017</v>
       </c>
       <c r="G14" t="n">
-        <v>13.96603488450957</v>
+        <v>12.10036384959934</v>
       </c>
       <c r="H14" t="n">
-        <v>40.43673985807086</v>
+        <v>19.4249303535619</v>
       </c>
       <c r="I14" t="n">
-        <v>17.37891586226964</v>
+        <v>45.33190027607287</v>
       </c>
       <c r="J14" t="n">
-        <v>39.19182083037649</v>
+        <v>39.95619197700749</v>
       </c>
       <c r="K14" t="n">
-        <v>27.24883906933765</v>
+        <v>198.756788272662</v>
       </c>
       <c r="L14" t="n">
-        <v>32.34480931396359</v>
+        <v>28.18143497012446</v>
       </c>
       <c r="M14" t="n">
-        <v>26.04199087437032</v>
+        <v>95.33172419462754</v>
       </c>
       <c r="N14" t="n">
-        <v>58.88178513968057</v>
+        <v>21.22776373746584</v>
       </c>
       <c r="O14" t="n">
-        <v>57.34722765163746</v>
+        <v>72.22692157258818</v>
       </c>
       <c r="P14" t="n">
-        <v>149.4855321045446</v>
+        <v>74.34902989124893</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.29256358070946</v>
+        <v>35.15442667601517</v>
       </c>
       <c r="R14" t="n">
-        <v>161.4771550507514</v>
+        <v>93.41870151781025</v>
       </c>
       <c r="S14" t="n">
-        <v>74.06045728560764</v>
+        <v>66.92783590925896</v>
       </c>
       <c r="T14" t="n">
-        <v>35.97451267896641</v>
+        <v>74.09216619226939</v>
       </c>
       <c r="U14" t="n">
-        <v>287.3415621196801</v>
+        <v>59.59511301075759</v>
       </c>
       <c r="V14" t="n">
-        <v>49.78150814423697</v>
+        <v>49.31086150001771</v>
       </c>
       <c r="W14" t="n">
-        <v>117.9419308539033</v>
+        <v>48.29215570325145</v>
       </c>
       <c r="X14" t="n">
-        <v>9.30332021499428</v>
+        <v>63.6149592441552</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.13888062384788</v>
+        <v>84.27711871877155</v>
       </c>
       <c r="Z14" t="n">
-        <v>118.2105107120245</v>
+        <v>127.8412560181446</v>
       </c>
       <c r="AA14" t="n">
-        <v>78.03946914183034</v>
+        <v>68.09917770522077</v>
       </c>
       <c r="AB14" t="n">
-        <v>64.23809868403886</v>
+        <v>88.34735840759784</v>
       </c>
       <c r="AC14" t="n">
-        <v>101.6188642698172</v>
+        <v>108.3069173887887</v>
       </c>
       <c r="AD14" t="n">
-        <v>63.63658272031972</v>
+        <v>126.5811378794759</v>
       </c>
       <c r="AE14" t="n">
-        <v>132.8131542372383</v>
+        <v>109.0639424684481</v>
       </c>
       <c r="AF14" t="n">
-        <v>117.4764364765411</v>
+        <v>21.31824599502335</v>
       </c>
       <c r="AG14" t="n">
-        <v>144.0678187174089</v>
+        <v>76.74501310966451</v>
       </c>
       <c r="AH14" t="n">
-        <v>108.1629533357169</v>
+        <v>170.2088071942336</v>
       </c>
       <c r="AI14" t="n">
-        <v>133.4341891756388</v>
+        <v>37.60425296599325</v>
       </c>
       <c r="AJ14" t="n">
-        <v>204.2305569503058</v>
+        <v>64.92988890018837</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.408466785532147</v>
+        <v>47.61381689131932</v>
       </c>
       <c r="AL14" t="n">
-        <v>31.44691474659577</v>
+        <v>63.90095662973803</v>
       </c>
       <c r="AM14" t="n">
-        <v>70.02652536494335</v>
+        <v>43.65598444672121</v>
       </c>
       <c r="AN14" t="n">
-        <v>42.9773456554267</v>
+        <v>19.27740579511632</v>
       </c>
       <c r="AO14" t="n">
-        <v>29.05850407426738</v>
+        <v>23.73463258251549</v>
       </c>
       <c r="AP14" t="n">
-        <v>42.77578509986997</v>
+        <v>32.17502837447142</v>
       </c>
       <c r="AQ14" t="n">
-        <v>36.50032001841609</v>
+        <v>23.49960146722626</v>
       </c>
       <c r="AR14" t="n">
-        <v>24.10636445122305</v>
+        <v>17.94097193642221</v>
       </c>
       <c r="AS14" t="n">
-        <v>40.26439944531099</v>
+        <v>26.40472627752353</v>
       </c>
       <c r="AT14" t="n">
-        <v>22.15851598061666</v>
+        <v>22.75773688355121</v>
       </c>
       <c r="AU14" t="n">
-        <v>20.83399533857066</v>
+        <v>26.25150775789396</v>
       </c>
       <c r="AV14" t="n">
-        <v>12.03372496502428</v>
+        <v>12.40065851743809</v>
       </c>
       <c r="AW14" t="n">
-        <v>20.04632997089455</v>
+        <v>18.90030169959006</v>
       </c>
       <c r="AX14" t="n">
-        <v>24.52475105908859</v>
+        <v>22.82453445089074</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5795701216472984</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.176995180747139</v>
+        <v>3.863943470635693</v>
       </c>
       <c r="E15" t="n">
-        <v>3.660670944911881</v>
+        <v>2.182036286212639</v>
       </c>
       <c r="F15" t="n">
-        <v>1.907245046727635</v>
+        <v>4.168296331343864</v>
       </c>
       <c r="G15" t="n">
-        <v>1.937115732841726</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.297490786528308</v>
+        <v>2.086151623932626</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8771974782317795</v>
+        <v>7.646393245981968</v>
       </c>
       <c r="J15" t="n">
-        <v>4.270703455180009</v>
+        <v>18.77537223785633</v>
       </c>
       <c r="K15" t="n">
-        <v>2.763003950088885</v>
+        <v>0.6841301445900233</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5739074473905046</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>4.548804067600534</v>
+        <v>6.33055633032519</v>
       </c>
       <c r="N15" t="n">
-        <v>9.930588020331015</v>
+        <v>11.33631614343546</v>
       </c>
       <c r="O15" t="n">
-        <v>2.378045940849137</v>
+        <v>5.636109331069664</v>
       </c>
       <c r="P15" t="n">
-        <v>4.233230928005248</v>
+        <v>0.8531537808347853</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.40151494768536</v>
+        <v>3.966861353999895</v>
       </c>
       <c r="R15" t="n">
-        <v>1.979621694014357</v>
+        <v>3.546291980253975</v>
       </c>
       <c r="S15" t="n">
-        <v>6.705814942945931</v>
+        <v>2.368573899727004</v>
       </c>
       <c r="T15" t="n">
-        <v>4.893030376362037</v>
+        <v>2.586628150475493</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08164928371606</v>
+        <v>7.358911942923989</v>
       </c>
       <c r="V15" t="n">
-        <v>4.874292153320349</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.460508404890062</v>
+        <v>6.276175800576532</v>
       </c>
       <c r="X15" t="n">
-        <v>5.51271486724007</v>
+        <v>3.013178250131838</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.576923227742681</v>
+        <v>4.362000877189774</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.152301102375934</v>
+        <v>9.134153180923654</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.645116372670816</v>
+        <v>1.381178825901264</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.199448090588765</v>
+        <v>5.381150175666345</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.491100566884941</v>
+        <v>5.563238155647594</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.383035916947252</v>
+        <v>10.77794680120016</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.168900266851538</v>
+        <v>2.794374779124541</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.317445357728254</v>
+        <v>5.661524573010151</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.56945468277006</v>
+        <v>5.605099607472436</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.516049172204234</v>
+        <v>2.586098047706203</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.699413983745679</v>
+        <v>1.225568749231214</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.983845644109927</v>
+        <v>6.930120933316568</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.456240288096278</v>
+        <v>3.920882995326827</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.691607132660342</v>
+        <v>2.809264568221412</v>
       </c>
       <c r="AM15" t="n">
-        <v>7.275646891047828</v>
+        <v>4.853784468311161</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.089836270695166</v>
+        <v>3.46174173361872</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.181351340800158</v>
+        <v>3.033239364850758</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.484079349599102</v>
+        <v>2.851740222929355</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.892863559735113</v>
+        <v>8.742828910900654</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.442117427162169</v>
+        <v>3.447356906942124</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.89280702039113</v>
+        <v>0.8412844623017163</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.635396938638118</v>
+        <v>3.95425790098196</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.587010647968452</v>
+        <v>1.25586248962146</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.653396833301093</v>
+        <v>2.418737071897721</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.274533909645209</v>
+        <v>1.643351688841411</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.301324671730005</v>
+        <v>1.84376602258482</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8.271908675036903</v>
+        <v>5.236699059018485</v>
       </c>
       <c r="D16" t="n">
-        <v>23.35167554468779</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.33303305680377</v>
+        <v>15.396686976354</v>
       </c>
       <c r="F16" t="n">
-        <v>23.88342778059778</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.49914217910076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.510750000403842</v>
+        <v>34.49070965813989</v>
       </c>
       <c r="I16" t="n">
-        <v>37.2315522660261</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>26.80134699261008</v>
+        <v>162.1360739274504</v>
       </c>
       <c r="K16" t="n">
-        <v>41.54036887128071</v>
+        <v>49.40894959771993</v>
       </c>
       <c r="L16" t="n">
-        <v>9.082129887258075</v>
+        <v>34.39907316742572</v>
       </c>
       <c r="M16" t="n">
-        <v>46.99942498870748</v>
+        <v>71.83716292751296</v>
       </c>
       <c r="N16" t="n">
-        <v>24.91673563717743</v>
+        <v>224.9777849774127</v>
       </c>
       <c r="O16" t="n">
-        <v>256.5311117740071</v>
+        <v>2.171764722485214</v>
       </c>
       <c r="P16" t="n">
-        <v>66.35663892713484</v>
+        <v>16.12298328522836</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.04241407604616</v>
+        <v>95.33639207973268</v>
       </c>
       <c r="R16" t="n">
-        <v>17.18971144929241</v>
+        <v>32.18093182610273</v>
       </c>
       <c r="S16" t="n">
-        <v>188.0903856868937</v>
+        <v>36.49380204752507</v>
       </c>
       <c r="T16" t="n">
-        <v>34.7186862381519</v>
+        <v>37.67726300362404</v>
       </c>
       <c r="U16" t="n">
-        <v>64.33810866928812</v>
+        <v>25.50619461848779</v>
       </c>
       <c r="V16" t="n">
-        <v>140.6638358261455</v>
+        <v>49.46099693678254</v>
       </c>
       <c r="W16" t="n">
-        <v>61.70598363760768</v>
+        <v>59.9397922967999</v>
       </c>
       <c r="X16" t="n">
-        <v>47.84488808576601</v>
+        <v>67.33578035036247</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.46474907222837</v>
+        <v>52.10219284361478</v>
       </c>
       <c r="Z16" t="n">
-        <v>35.82577887539213</v>
+        <v>121.8823168978398</v>
       </c>
       <c r="AA16" t="n">
-        <v>84.95994333029748</v>
+        <v>64.71746464114312</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.22602218964288</v>
+        <v>62.51382237155289</v>
       </c>
       <c r="AC16" t="n">
-        <v>75.30537575620684</v>
+        <v>84.70371774117342</v>
       </c>
       <c r="AD16" t="n">
-        <v>63.27979094857563</v>
+        <v>197.5723650424785</v>
       </c>
       <c r="AE16" t="n">
-        <v>44.79516674378179</v>
+        <v>95.43583868133176</v>
       </c>
       <c r="AF16" t="n">
-        <v>94.54443895317387</v>
+        <v>56.18280081898425</v>
       </c>
       <c r="AG16" t="n">
-        <v>29.76703078535872</v>
+        <v>82.0179213525133</v>
       </c>
       <c r="AH16" t="n">
-        <v>78.32686708768382</v>
+        <v>45.58664454450441</v>
       </c>
       <c r="AI16" t="n">
-        <v>78.26128293538883</v>
+        <v>51.91228617988276</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23.22903740020937</v>
+        <v>46.78360872994608</v>
       </c>
       <c r="AK16" t="n">
-        <v>74.83949632806507</v>
+        <v>74.4541119380907</v>
       </c>
       <c r="AL16" t="n">
-        <v>24.15959463640909</v>
+        <v>78.74657354230695</v>
       </c>
       <c r="AM16" t="n">
-        <v>57.17632245361378</v>
+        <v>11.97510813677803</v>
       </c>
       <c r="AN16" t="n">
-        <v>16.05955631669918</v>
+        <v>39.82022346431945</v>
       </c>
       <c r="AO16" t="n">
-        <v>15.58659794036853</v>
+        <v>68.36944335730469</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.425466037984812</v>
+        <v>16.65267620679169</v>
       </c>
       <c r="AQ16" t="n">
-        <v>17.22029679898782</v>
+        <v>9.551490117898084</v>
       </c>
       <c r="AR16" t="n">
-        <v>32.14312279193167</v>
+        <v>14.03834175507107</v>
       </c>
       <c r="AS16" t="n">
-        <v>21.58757046137377</v>
+        <v>10.45291547982109</v>
       </c>
       <c r="AT16" t="n">
-        <v>13.91920917948556</v>
+        <v>15.45025354435037</v>
       </c>
       <c r="AU16" t="n">
-        <v>14.23429878634026</v>
+        <v>7.951897812666461</v>
       </c>
       <c r="AV16" t="n">
-        <v>17.66497846934231</v>
+        <v>8.200546787995886</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.690645036785214</v>
+        <v>18.89128464908896</v>
       </c>
       <c r="AX16" t="n">
-        <v>10.07956825932499</v>
+        <v>3.567568952178664</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>18.26676833102365</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>16.79211144164814</v>
       </c>
       <c r="E17" t="n">
-        <v>19.17991729511058</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>14.7658880340247</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>67.3775143156722</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.201518343622357</v>
+        <v>24.29460655060683</v>
       </c>
       <c r="I17" t="n">
-        <v>34.50385966426273</v>
+        <v>26.24112905162916</v>
       </c>
       <c r="J17" t="n">
-        <v>24.97807831271319</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>82.62790581865693</v>
+        <v>18.06956368557919</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>10.68656505143435</v>
       </c>
       <c r="M17" t="n">
-        <v>106.989243469508</v>
+        <v>9.768206839518527</v>
       </c>
       <c r="N17" t="n">
-        <v>61.08049843658699</v>
+        <v>39.08807670302329</v>
       </c>
       <c r="O17" t="n">
-        <v>20.30254073742415</v>
+        <v>19.83369348587535</v>
       </c>
       <c r="P17" t="n">
-        <v>20.85455246344018</v>
+        <v>95.81316557190351</v>
       </c>
       <c r="Q17" t="n">
-        <v>34.4944043744913</v>
+        <v>111.8227222043655</v>
       </c>
       <c r="R17" t="n">
-        <v>153.0510682195336</v>
+        <v>43.63112985676496</v>
       </c>
       <c r="S17" t="n">
-        <v>66.21393829531166</v>
+        <v>51.12805440802527</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>28.51313769960669</v>
       </c>
       <c r="U17" t="n">
-        <v>104.9910128120891</v>
+        <v>74.26493980234189</v>
       </c>
       <c r="V17" t="n">
-        <v>66.51277960687554</v>
+        <v>115.8310979162512</v>
       </c>
       <c r="W17" t="n">
-        <v>59.68396365951352</v>
+        <v>43.44574046883138</v>
       </c>
       <c r="X17" t="n">
-        <v>48.90776348926913</v>
+        <v>35.2080505305637</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.48101740051735</v>
+        <v>13.09768221785148</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.4592271198024</v>
+        <v>29.78055116335712</v>
       </c>
       <c r="AA17" t="n">
-        <v>16.04455244089586</v>
+        <v>26.59334229880488</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.08657978304849</v>
+        <v>13.53521329975155</v>
       </c>
       <c r="AC17" t="n">
-        <v>26.42247846721778</v>
+        <v>97.60677359360447</v>
       </c>
       <c r="AD17" t="n">
-        <v>56.06248949153828</v>
+        <v>47.4378942859939</v>
       </c>
       <c r="AE17" t="n">
-        <v>43.60277321367452</v>
+        <v>22.23584657927904</v>
       </c>
       <c r="AF17" t="n">
-        <v>27.17385618118699</v>
+        <v>27.04893024729549</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.36720390607483</v>
+        <v>66.75795302601888</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.48851226991055</v>
+        <v>15.74926429239234</v>
       </c>
       <c r="AI17" t="n">
-        <v>53.79220995877725</v>
+        <v>23.11409563179735</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95.32060410394124</v>
+        <v>48.04445265042463</v>
       </c>
       <c r="AK17" t="n">
-        <v>32.50479856489685</v>
+        <v>29.7525233561109</v>
       </c>
       <c r="AL17" t="n">
-        <v>3.657438388162754</v>
+        <v>39.10152968203746</v>
       </c>
       <c r="AM17" t="n">
-        <v>63.61884256379489</v>
+        <v>16.4077908274017</v>
       </c>
       <c r="AN17" t="n">
-        <v>27.94120310595578</v>
+        <v>0.9042581747118927</v>
       </c>
       <c r="AO17" t="n">
-        <v>31.37786711658357</v>
+        <v>27.94783364373786</v>
       </c>
       <c r="AP17" t="n">
-        <v>44.80831880415634</v>
+        <v>21.98412107212657</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4.056663627713054</v>
+        <v>35.97787778234433</v>
       </c>
       <c r="AR17" t="n">
-        <v>23.21359877982729</v>
+        <v>8.003870477197182</v>
       </c>
       <c r="AS17" t="n">
-        <v>20.68347268339645</v>
+        <v>30.83451753898318</v>
       </c>
       <c r="AT17" t="n">
-        <v>16.26746607992406</v>
+        <v>25.33272181666169</v>
       </c>
       <c r="AU17" t="n">
-        <v>40.83715144298147</v>
+        <v>21.05904607285309</v>
       </c>
       <c r="AV17" t="n">
-        <v>18.59083227918852</v>
+        <v>25.76491481950138</v>
       </c>
       <c r="AW17" t="n">
-        <v>10.8116485886883</v>
+        <v>27.75345951794731</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.412387578144343</v>
+        <v>18.70989583882118</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9754405114218287</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.322637293821193</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>6.849671008644878</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6631291660482606</v>
+        <v>1.64854256782754</v>
       </c>
       <c r="G18" t="n">
-        <v>7.152269882188516</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7882439706687197</v>
+        <v>11.22219700696382</v>
       </c>
       <c r="I18" t="n">
-        <v>24.03790817812481</v>
+        <v>14.16131745495541</v>
       </c>
       <c r="J18" t="n">
-        <v>57.18869482008873</v>
+        <v>25.41572176565848</v>
       </c>
       <c r="K18" t="n">
-        <v>34.8272657383466</v>
+        <v>40.24415709885871</v>
       </c>
       <c r="L18" t="n">
-        <v>7.47975509633213</v>
+        <v>48.69849587519575</v>
       </c>
       <c r="M18" t="n">
-        <v>31.58458594222842</v>
+        <v>22.33197000651066</v>
       </c>
       <c r="N18" t="n">
-        <v>15.51061078215267</v>
+        <v>3.200653949632993</v>
       </c>
       <c r="O18" t="n">
-        <v>81.87429551466579</v>
+        <v>71.76740334316854</v>
       </c>
       <c r="P18" t="n">
-        <v>21.82180754409031</v>
+        <v>12.17552167077619</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.69707015727293</v>
+        <v>38.45028174557535</v>
       </c>
       <c r="R18" t="n">
-        <v>6.35115616919715</v>
+        <v>64.03985336573322</v>
       </c>
       <c r="S18" t="n">
-        <v>17.8640883273928</v>
+        <v>10.6861141360599</v>
       </c>
       <c r="T18" t="n">
-        <v>10.00294129096739</v>
+        <v>59.11441952562785</v>
       </c>
       <c r="U18" t="n">
-        <v>18.17991522196958</v>
+        <v>23.5341633614198</v>
       </c>
       <c r="V18" t="n">
-        <v>11.91785284563474</v>
+        <v>11.99539152381238</v>
       </c>
       <c r="W18" t="n">
-        <v>9.429155099179585</v>
+        <v>20.57621955211118</v>
       </c>
       <c r="X18" t="n">
-        <v>18.84172136932122</v>
+        <v>22.40387505474827</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.397720685314081</v>
+        <v>14.2125095794739</v>
       </c>
       <c r="Z18" t="n">
-        <v>37.13686946798436</v>
+        <v>14.29119098751336</v>
       </c>
       <c r="AA18" t="n">
-        <v>14.79212828025024</v>
+        <v>19.59046618166415</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.88771898698545</v>
+        <v>20.54440039669959</v>
       </c>
       <c r="AC18" t="n">
-        <v>44.36933273973996</v>
+        <v>8.37474156416064</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>23.58759698673194</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.179539327564983</v>
+        <v>13.87263525536689</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.317433531832553</v>
+        <v>18.53339778763813</v>
       </c>
       <c r="AG18" t="n">
-        <v>27.24008138808077</v>
+        <v>25.59704820246433</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.10801761507399</v>
+        <v>6.806327248502662</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.26054841533988</v>
+        <v>7.99586125340415</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.481549047390453</v>
+        <v>7.013381118356083</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.153563492349672</v>
+        <v>7.977878632365846</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.777634157729933</v>
+        <v>5.199161809241867</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.000041235841378</v>
+        <v>1.601657822045348</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.534981048403563</v>
+        <v>3.308644235714557</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.713192023244363</v>
+        <v>7.908315384715512</v>
       </c>
       <c r="AP18" t="n">
-        <v>11.01549105089854</v>
+        <v>3.440241449308697</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.724584198167197</v>
+        <v>1.619310482120571</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.989548641857373</v>
+        <v>2.982877594849171</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.517226295805283</v>
+        <v>3.318156493622424</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.9020964550600359</v>
+        <v>6.963837695541153</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.666080358430533</v>
+        <v>5.091431578701287</v>
       </c>
       <c r="AV18" t="n">
-        <v>7.637939452701836</v>
+        <v>2.311472355086157</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.348461587761871</v>
+        <v>3.958829175630855</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.34009065614595</v>
+        <v>2.309835489340833</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.704948635498705</v>
+        <v>11.12222781848994</v>
       </c>
       <c r="D19" t="n">
-        <v>9.682156744994263</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>29.39444745880727</v>
       </c>
       <c r="F19" t="n">
-        <v>5.780314575548975</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.53550996399041</v>
+        <v>36.67481605492407</v>
       </c>
       <c r="H19" t="n">
-        <v>19.36000744241579</v>
+        <v>14.25392541839182</v>
       </c>
       <c r="I19" t="n">
-        <v>178.0394598303566</v>
+        <v>31.04368621586991</v>
       </c>
       <c r="J19" t="n">
-        <v>35.5580552315111</v>
+        <v>33.23202543872416</v>
       </c>
       <c r="K19" t="n">
-        <v>73.79027184209247</v>
+        <v>12.42830322002211</v>
       </c>
       <c r="L19" t="n">
-        <v>19.27353898080649</v>
+        <v>0.3616806724473287</v>
       </c>
       <c r="M19" t="n">
-        <v>50.32469927621692</v>
+        <v>71.98055594933042</v>
       </c>
       <c r="N19" t="n">
-        <v>58.35950937669733</v>
+        <v>40.69932786548894</v>
       </c>
       <c r="O19" t="n">
-        <v>9.330452789690709</v>
+        <v>79.07356252307139</v>
       </c>
       <c r="P19" t="n">
-        <v>23.47640476165812</v>
+        <v>40.22444595006582</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.15645939865223</v>
+        <v>40.50304009077335</v>
       </c>
       <c r="R19" t="n">
-        <v>4.691102285053896</v>
+        <v>14.87675057331674</v>
       </c>
       <c r="S19" t="n">
-        <v>65.84601881647296</v>
+        <v>22.38912318657052</v>
       </c>
       <c r="T19" t="n">
-        <v>27.31152723743332</v>
+        <v>27.2567303429128</v>
       </c>
       <c r="U19" t="n">
-        <v>39.72624831934074</v>
+        <v>50.83757268755105</v>
       </c>
       <c r="V19" t="n">
-        <v>2.135852083914762</v>
+        <v>59.83361777699824</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>5.129239850056171</v>
       </c>
       <c r="X19" t="n">
-        <v>37.73980646714404</v>
+        <v>37.30642205815465</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.83455840972719</v>
+        <v>8.460435630644675</v>
       </c>
       <c r="Z19" t="n">
-        <v>32.21771440321813</v>
+        <v>27.14442738829726</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.347680836496441</v>
+        <v>15.11901701038042</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.274905344874406</v>
+        <v>21.64441537524867</v>
       </c>
       <c r="AC19" t="n">
-        <v>26.33877393563959</v>
+        <v>74.01902698828023</v>
       </c>
       <c r="AD19" t="n">
-        <v>39.58744832242999</v>
+        <v>9.483782089901505</v>
       </c>
       <c r="AE19" t="n">
-        <v>4.242229886030442</v>
+        <v>6.235806494737204</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.29327539143281</v>
+        <v>41.57013813830533</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.296196521941681</v>
+        <v>5.74306833240419</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.036767004168716</v>
+        <v>5.437873652951112</v>
       </c>
       <c r="AI19" t="n">
-        <v>6.486467805847926</v>
+        <v>40.10574632751096</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.789069852233907</v>
+        <v>0.5258236570016317</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.78526481540223</v>
+        <v>25.51048124885447</v>
       </c>
       <c r="AL19" t="n">
-        <v>11.11736266904014</v>
+        <v>3.522048530738375</v>
       </c>
       <c r="AM19" t="n">
-        <v>17.21058509173332</v>
+        <v>9.402849173055888</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.922153368750079</v>
+        <v>1.160479565578011</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>11.39511470148868</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>10.0227708778396</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.291429820084414</v>
+        <v>8.603230846308039</v>
       </c>
       <c r="AR19" t="n">
-        <v>14.59402129384701</v>
+        <v>7.344259281740365</v>
       </c>
       <c r="AS19" t="n">
-        <v>13.2952457853106</v>
+        <v>14.48238406994534</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>10.22257576525869</v>
       </c>
       <c r="AU19" t="n">
-        <v>4.549238839122699</v>
+        <v>5.983106143274582</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.369466377996706</v>
+        <v>55.47922905574267</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.1713651809943</v>
+        <v>58.04226494877274</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.7502539328177192</v>
+        <v>5.45410698279288</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>20.17636206591962</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>19.04358904915035</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>14.56005101376513</v>
+        <v>116.1303889134466</v>
       </c>
       <c r="F20" t="n">
-        <v>26.9189556379029</v>
+        <v>38.90393903027147</v>
       </c>
       <c r="G20" t="n">
-        <v>5.894369929152928</v>
+        <v>51.05735387755016</v>
       </c>
       <c r="H20" t="n">
-        <v>8.655440710757178</v>
+        <v>20.27311990016435</v>
       </c>
       <c r="I20" t="n">
-        <v>14.88302499065171</v>
+        <v>69.34837841575212</v>
       </c>
       <c r="J20" t="n">
-        <v>28.48873344911017</v>
+        <v>62.7060937980558</v>
       </c>
       <c r="K20" t="n">
-        <v>88.05255553713958</v>
+        <v>50.70387912874808</v>
       </c>
       <c r="L20" t="n">
-        <v>53.34251496028237</v>
+        <v>123.9629970829876</v>
       </c>
       <c r="M20" t="n">
-        <v>181.6150319895243</v>
+        <v>75.24245210965245</v>
       </c>
       <c r="N20" t="n">
-        <v>117.3243473383526</v>
+        <v>93.73561795530713</v>
       </c>
       <c r="O20" t="n">
-        <v>76.1614616787493</v>
+        <v>13.61532064374944</v>
       </c>
       <c r="P20" t="n">
-        <v>40.83664672233809</v>
+        <v>76.96387588631634</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.36978483337104</v>
+        <v>73.54334937115989</v>
       </c>
       <c r="R20" t="n">
-        <v>59.77275855600512</v>
+        <v>102.7928431832734</v>
       </c>
       <c r="S20" t="n">
-        <v>53.75472700423155</v>
+        <v>95.99536784672019</v>
       </c>
       <c r="T20" t="n">
-        <v>71.99040987209607</v>
+        <v>89.02966066918268</v>
       </c>
       <c r="U20" t="n">
-        <v>64.64681899840248</v>
+        <v>4.108895770640029</v>
       </c>
       <c r="V20" t="n">
-        <v>95.70470751839179</v>
+        <v>98.28707283713445</v>
       </c>
       <c r="W20" t="n">
-        <v>91.1498761736874</v>
+        <v>59.00453710524158</v>
       </c>
       <c r="X20" t="n">
-        <v>64.48831520692765</v>
+        <v>84.8283633569788</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.80893962408351</v>
+        <v>73.96952689334283</v>
       </c>
       <c r="Z20" t="n">
-        <v>69.41807510974272</v>
+        <v>75.99734417579216</v>
       </c>
       <c r="AA20" t="n">
-        <v>74.2232845781682</v>
+        <v>101.3213067974977</v>
       </c>
       <c r="AB20" t="n">
-        <v>120.5389844077051</v>
+        <v>62.04002444278655</v>
       </c>
       <c r="AC20" t="n">
-        <v>77.71333815288725</v>
+        <v>40.27017224531843</v>
       </c>
       <c r="AD20" t="n">
-        <v>107.6391282725241</v>
+        <v>93.10721901133944</v>
       </c>
       <c r="AE20" t="n">
-        <v>164.9334573978517</v>
+        <v>169.3530776461249</v>
       </c>
       <c r="AF20" t="n">
-        <v>91.86666505944248</v>
+        <v>103.6376819531263</v>
       </c>
       <c r="AG20" t="n">
-        <v>165.8353175642499</v>
+        <v>73.9896702871051</v>
       </c>
       <c r="AH20" t="n">
-        <v>95.11324025357459</v>
+        <v>98.74642929443593</v>
       </c>
       <c r="AI20" t="n">
-        <v>78.74940298171161</v>
+        <v>46.52074381772073</v>
       </c>
       <c r="AJ20" t="n">
-        <v>79.73271853343043</v>
+        <v>44.07177382222049</v>
       </c>
       <c r="AK20" t="n">
-        <v>44.29214180020752</v>
+        <v>63.9050251771658</v>
       </c>
       <c r="AL20" t="n">
-        <v>80.57606185220781</v>
+        <v>52.61951892980534</v>
       </c>
       <c r="AM20" t="n">
-        <v>33.456048202709</v>
+        <v>26.18316380671498</v>
       </c>
       <c r="AN20" t="n">
-        <v>35.44799833283275</v>
+        <v>49.44069733684158</v>
       </c>
       <c r="AO20" t="n">
-        <v>44.54985791898831</v>
+        <v>18.68029008292222</v>
       </c>
       <c r="AP20" t="n">
-        <v>33.67920169522847</v>
+        <v>45.08068645963584</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16.61811810129561</v>
+        <v>30.48815095555522</v>
       </c>
       <c r="AR20" t="n">
-        <v>31.1107093227344</v>
+        <v>10.25816089013115</v>
       </c>
       <c r="AS20" t="n">
-        <v>9.505994070867901</v>
+        <v>18.87508856801266</v>
       </c>
       <c r="AT20" t="n">
-        <v>32.40837315195856</v>
+        <v>13.67075858259535</v>
       </c>
       <c r="AU20" t="n">
-        <v>19.10467112595469</v>
+        <v>32.45028893660593</v>
       </c>
       <c r="AV20" t="n">
-        <v>14.46082385350447</v>
+        <v>12.3021978108844</v>
       </c>
       <c r="AW20" t="n">
-        <v>12.8029859981456</v>
+        <v>17.74645146492148</v>
       </c>
       <c r="AX20" t="n">
-        <v>11.23938142450816</v>
+        <v>48.96483432401386</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.170433372042538</v>
+        <v>4.790386227432649</v>
       </c>
       <c r="D21" t="n">
-        <v>2.927639548902248</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.638480646545879</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.75921512828945</v>
+        <v>2.162402525556728</v>
       </c>
       <c r="G21" t="n">
-        <v>3.450336781457285</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7743591471698408</v>
+        <v>1.157552436146687</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25789250785404</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.358464012946865</v>
+        <v>1.077000118608463</v>
       </c>
       <c r="K21" t="n">
-        <v>1.502140428642759</v>
+        <v>5.965610350113025</v>
       </c>
       <c r="L21" t="n">
-        <v>1.09851690223208</v>
+        <v>1.170175751931083</v>
       </c>
       <c r="M21" t="n">
-        <v>7.697107753609973</v>
+        <v>1.778486764411231</v>
       </c>
       <c r="N21" t="n">
-        <v>2.398830025700657</v>
+        <v>3.63174270462201</v>
       </c>
       <c r="O21" t="n">
-        <v>3.753746268633481</v>
+        <v>8.227045394467975</v>
       </c>
       <c r="P21" t="n">
-        <v>8.302387358242656</v>
+        <v>6.00307747206835</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.848423002312801</v>
+        <v>6.324173787534415</v>
       </c>
       <c r="R21" t="n">
-        <v>10.55652473133319</v>
+        <v>21.18516839055293</v>
       </c>
       <c r="S21" t="n">
-        <v>3.903483885545871</v>
+        <v>2.649102610834437</v>
       </c>
       <c r="T21" t="n">
-        <v>2.698484452634114</v>
+        <v>3.155332001439825</v>
       </c>
       <c r="U21" t="n">
-        <v>3.696285971376877</v>
+        <v>9.188582023571037</v>
       </c>
       <c r="V21" t="n">
-        <v>2.134198194609779</v>
+        <v>9.429355725016151</v>
       </c>
       <c r="W21" t="n">
-        <v>4.322355454288191</v>
+        <v>3.162431479411808</v>
       </c>
       <c r="X21" t="n">
-        <v>2.902636030233275</v>
+        <v>0.2182800570879033</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.589465040044619</v>
+        <v>2.658566362378077</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.482523436372279</v>
+        <v>4.256218732626839</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.54726972524286</v>
+        <v>3.642428101746818</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.400311241429506</v>
+        <v>3.733818657333529</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.961033785680392</v>
+        <v>7.749410950092391</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.844268899821187</v>
+        <v>6.34801248750141</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.563795412394368</v>
+        <v>4.244140955103815</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.736177020526355</v>
+        <v>5.309098244787531</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.247686326424728</v>
+        <v>3.09726435789058</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.849160624091757</v>
+        <v>9.502123549325074</v>
       </c>
       <c r="AI21" t="n">
-        <v>10.6786334624291</v>
+        <v>6.561164924751719</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.806325267482612</v>
+        <v>3.484955145724859</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.256355140260235</v>
+        <v>1.414497144145163</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.632487533422403</v>
+        <v>3.303350320338514</v>
       </c>
       <c r="AM21" t="n">
-        <v>9.578910546234448</v>
+        <v>10.0618372438796</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.024018420999595</v>
+        <v>3.759384687997221</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.612732608251362</v>
+        <v>2.429966903605917</v>
       </c>
       <c r="AP21" t="n">
-        <v>6.060377901882097</v>
+        <v>4.430210492801199</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.570081189522075</v>
+        <v>2.471658935181734</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.123185240972204</v>
+        <v>5.526645805436268</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.350540380486068</v>
+        <v>1.993784321515193</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.544867890660687</v>
+        <v>0.7537989118882266</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.188868754604849</v>
+        <v>4.276394904894115</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.844766444563889</v>
+        <v>1.782830565762543</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.324838530983749</v>
+        <v>7.047021384702253</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.9549934088656</v>
+        <v>0.01943122381545587</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>6.315177683683785</v>
+        <v>9.398162558258562</v>
       </c>
       <c r="D22" t="n">
-        <v>5.004767150877997</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20.5798710865572</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.432499985435883</v>
+        <v>15.86253777842705</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>20.87172007364134</v>
+        <v>11.09319722248311</v>
       </c>
       <c r="I22" t="n">
-        <v>21.63754062583394</v>
+        <v>41.6281253510323</v>
       </c>
       <c r="J22" t="n">
-        <v>39.92855514729148</v>
+        <v>86.63385882140446</v>
       </c>
       <c r="K22" t="n">
-        <v>20.3508414008416</v>
+        <v>15.59480926818476</v>
       </c>
       <c r="L22" t="n">
-        <v>46.18160588809177</v>
+        <v>136.0487274962407</v>
       </c>
       <c r="M22" t="n">
-        <v>16.6407553283066</v>
+        <v>78.59404321322822</v>
       </c>
       <c r="N22" t="n">
-        <v>54.82670868875395</v>
+        <v>129.2563240666012</v>
       </c>
       <c r="O22" t="n">
-        <v>75.97257107759667</v>
+        <v>35.7452501266209</v>
       </c>
       <c r="P22" t="n">
-        <v>140.4831141309501</v>
+        <v>29.67731035678078</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.9125937241206</v>
+        <v>67.90687926507144</v>
       </c>
       <c r="R22" t="n">
-        <v>29.6018225829098</v>
+        <v>65.6136324216362</v>
       </c>
       <c r="S22" t="n">
-        <v>71.01368625897271</v>
+        <v>63.40908705296962</v>
       </c>
       <c r="T22" t="n">
-        <v>94.0629822021989</v>
+        <v>89.11408679513653</v>
       </c>
       <c r="U22" t="n">
-        <v>63.50029547838894</v>
+        <v>99.47668127980799</v>
       </c>
       <c r="V22" t="n">
-        <v>64.10353947996046</v>
+        <v>41.97072009993942</v>
       </c>
       <c r="W22" t="n">
-        <v>33.56853191176783</v>
+        <v>120.5504256953544</v>
       </c>
       <c r="X22" t="n">
-        <v>77.58317172494233</v>
+        <v>87.22010990606235</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.24716515322928</v>
+        <v>60.63978452753167</v>
       </c>
       <c r="Z22" t="n">
-        <v>75.18173133886201</v>
+        <v>73.2430858923119</v>
       </c>
       <c r="AA22" t="n">
-        <v>60.10769252095417</v>
+        <v>61.56272393340774</v>
       </c>
       <c r="AB22" t="n">
-        <v>89.409942252975</v>
+        <v>73.76660489990071</v>
       </c>
       <c r="AC22" t="n">
-        <v>120.3256340128994</v>
+        <v>61.73310803120675</v>
       </c>
       <c r="AD22" t="n">
-        <v>55.62658711179808</v>
+        <v>48.87889877456161</v>
       </c>
       <c r="AE22" t="n">
-        <v>70.75715618297463</v>
+        <v>84.69943503261963</v>
       </c>
       <c r="AF22" t="n">
-        <v>88.4175978108118</v>
+        <v>88.1002219447081</v>
       </c>
       <c r="AG22" t="n">
-        <v>41.51922167887227</v>
+        <v>61.83829446793014</v>
       </c>
       <c r="AH22" t="n">
-        <v>70.21053093183917</v>
+        <v>94.12398926656695</v>
       </c>
       <c r="AI22" t="n">
-        <v>15.36911331810322</v>
+        <v>45.38952044255055</v>
       </c>
       <c r="AJ22" t="n">
-        <v>46.51506283015931</v>
+        <v>46.24720758173929</v>
       </c>
       <c r="AK22" t="n">
-        <v>33.19407282637389</v>
+        <v>41.84463632503085</v>
       </c>
       <c r="AL22" t="n">
-        <v>48.50739340893913</v>
+        <v>51.68879932533788</v>
       </c>
       <c r="AM22" t="n">
-        <v>37.72011368001383</v>
+        <v>18.95003995452263</v>
       </c>
       <c r="AN22" t="n">
-        <v>25.41657025838283</v>
+        <v>11.64635742904983</v>
       </c>
       <c r="AO22" t="n">
-        <v>31.69839130144876</v>
+        <v>22.10602260767009</v>
       </c>
       <c r="AP22" t="n">
-        <v>11.38570417051857</v>
+        <v>37.07257288686264</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10.75303817280706</v>
+        <v>17.11062338756667</v>
       </c>
       <c r="AR22" t="n">
-        <v>8.49015582704855</v>
+        <v>20.73432233503109</v>
       </c>
       <c r="AS22" t="n">
-        <v>10.75944081611019</v>
+        <v>13.34467260241306</v>
       </c>
       <c r="AT22" t="n">
-        <v>12.05647615874721</v>
+        <v>12.17667225837322</v>
       </c>
       <c r="AU22" t="n">
-        <v>18.43033202267935</v>
+        <v>3.029559300877164</v>
       </c>
       <c r="AV22" t="n">
-        <v>18.88399411129865</v>
+        <v>13.92551908878947</v>
       </c>
       <c r="AW22" t="n">
-        <v>33.64013518830032</v>
+        <v>9.425072848553986</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.273360146456566</v>
+        <v>6.82774220597438</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>22.74461921008621</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>17.95317685869315</v>
+        <v>40.42579844552301</v>
       </c>
       <c r="E23" t="n">
-        <v>11.28614997582969</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>28.65922640437606</v>
+        <v>5.121217203349041</v>
       </c>
       <c r="G23" t="n">
-        <v>14.24007935259947</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>28.00455204098087</v>
       </c>
       <c r="I23" t="n">
-        <v>97.45836294474385</v>
+        <v>9.639401713093271</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>42.22435661633303</v>
       </c>
       <c r="K23" t="n">
-        <v>36.21195419791422</v>
+        <v>2.544627336253058</v>
       </c>
       <c r="L23" t="n">
-        <v>30.34850296323927</v>
+        <v>45.31651244236662</v>
       </c>
       <c r="M23" t="n">
-        <v>59.64950147940191</v>
+        <v>150.9785497148593</v>
       </c>
       <c r="N23" t="n">
-        <v>22.75688541260048</v>
+        <v>37.92014664797433</v>
       </c>
       <c r="O23" t="n">
-        <v>191.8687346175035</v>
+        <v>16.21519395887293</v>
       </c>
       <c r="P23" t="n">
-        <v>63.663381414092</v>
+        <v>104.4640112930098</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.3244246118354</v>
+        <v>31.85862155222193</v>
       </c>
       <c r="R23" t="n">
-        <v>69.42868702239738</v>
+        <v>43.63994312628536</v>
       </c>
       <c r="S23" t="n">
-        <v>81.07260849576673</v>
+        <v>26.87661204887562</v>
       </c>
       <c r="T23" t="n">
-        <v>48.49626119984816</v>
+        <v>109.7130633765041</v>
       </c>
       <c r="U23" t="n">
-        <v>129.5311087895733</v>
+        <v>29.98265156357477</v>
       </c>
       <c r="V23" t="n">
-        <v>28.60047886727262</v>
+        <v>58.96898433655438</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>19.57521707738335</v>
       </c>
       <c r="X23" t="n">
-        <v>51.00764636297999</v>
+        <v>35.309880128712</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.129780484287557</v>
+        <v>7.436774600881202</v>
       </c>
       <c r="Z23" t="n">
-        <v>33.67340553314451</v>
+        <v>106.69224715201</v>
       </c>
       <c r="AA23" t="n">
-        <v>126.3407655998992</v>
+        <v>40.52743067800606</v>
       </c>
       <c r="AB23" t="n">
-        <v>42.72031850359972</v>
+        <v>26.13063953201914</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.24391526059843</v>
+        <v>6.535514919990881</v>
       </c>
       <c r="AD23" t="n">
-        <v>34.84139182650832</v>
+        <v>34.10543165354884</v>
       </c>
       <c r="AE23" t="n">
-        <v>39.54990965878033</v>
+        <v>19.104799345591</v>
       </c>
       <c r="AF23" t="n">
-        <v>28.42870798519774</v>
+        <v>11.99771099241397</v>
       </c>
       <c r="AG23" t="n">
-        <v>36.26772334648667</v>
+        <v>59.96475853045661</v>
       </c>
       <c r="AH23" t="n">
-        <v>23.93039207974163</v>
+        <v>4.124466828741372</v>
       </c>
       <c r="AI23" t="n">
-        <v>76.39745529276955</v>
+        <v>47.46970412712224</v>
       </c>
       <c r="AJ23" t="n">
-        <v>44.79416137995327</v>
+        <v>17.33000789918945</v>
       </c>
       <c r="AK23" t="n">
-        <v>11.74136432764725</v>
+        <v>26.88431487010209</v>
       </c>
       <c r="AL23" t="n">
-        <v>35.01586554243211</v>
+        <v>3.986397018952595</v>
       </c>
       <c r="AM23" t="n">
-        <v>3.990739575743767</v>
+        <v>10.36318067124624</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.97656316315398</v>
+        <v>20.01922150411316</v>
       </c>
       <c r="AO23" t="n">
-        <v>29.11690727261659</v>
+        <v>33.14381436808883</v>
       </c>
       <c r="AP23" t="n">
-        <v>22.98260070002303</v>
+        <v>49.21370179026123</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25.53940702825571</v>
+        <v>11.63582344479825</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.340029480814318</v>
+        <v>17.94066062129047</v>
       </c>
       <c r="AS23" t="n">
-        <v>31.10697853309966</v>
+        <v>29.37957489080651</v>
       </c>
       <c r="AT23" t="n">
-        <v>27.77492981980874</v>
+        <v>30.52305689270525</v>
       </c>
       <c r="AU23" t="n">
-        <v>2.476210853236437</v>
+        <v>26.79916259706535</v>
       </c>
       <c r="AV23" t="n">
-        <v>34.62951299219037</v>
+        <v>21.23262939271197</v>
       </c>
       <c r="AW23" t="n">
-        <v>21.43395027988337</v>
+        <v>28.36641187900554</v>
       </c>
       <c r="AX23" t="n">
-        <v>5.81115789771227</v>
+        <v>24.94127571947968</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>1.184074575751217</v>
+        <v>8.943520221274852</v>
       </c>
       <c r="D24" t="n">
-        <v>3.81515519478364</v>
+        <v>11.03983401406716</v>
       </c>
       <c r="E24" t="n">
-        <v>7.586130294573765</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>13.38469097515321</v>
+        <v>8.59875202925638</v>
       </c>
       <c r="G24" t="n">
-        <v>4.581535105945449</v>
+        <v>5.098991388469383</v>
       </c>
       <c r="H24" t="n">
-        <v>1.158806692523767</v>
+        <v>22.07407006531844</v>
       </c>
       <c r="I24" t="n">
-        <v>6.292875608698885</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15.95731397793995</v>
+        <v>98.18348092147519</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.349303066440548</v>
       </c>
       <c r="L24" t="n">
-        <v>15.36253749864402</v>
+        <v>1.063944634680019</v>
       </c>
       <c r="M24" t="n">
-        <v>23.63474417413859</v>
+        <v>0.8833952003037595</v>
       </c>
       <c r="N24" t="n">
-        <v>21.3648137893979</v>
+        <v>34.98719683713934</v>
       </c>
       <c r="O24" t="n">
-        <v>17.44573308771973</v>
+        <v>0.6541626946669603</v>
       </c>
       <c r="P24" t="n">
-        <v>39.96078810357477</v>
+        <v>0.3294880941628975</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.92809952052761</v>
+        <v>23.22944321870801</v>
       </c>
       <c r="R24" t="n">
-        <v>46.48423377339262</v>
+        <v>19.80067664109377</v>
       </c>
       <c r="S24" t="n">
-        <v>11.10536672129369</v>
+        <v>31.77626508026126</v>
       </c>
       <c r="T24" t="n">
-        <v>54.46097178580435</v>
+        <v>2.648330063019181</v>
       </c>
       <c r="U24" t="n">
-        <v>6.170325368502252</v>
+        <v>36.01655052327536</v>
       </c>
       <c r="V24" t="n">
-        <v>29.27068872293669</v>
+        <v>47.1101619580018</v>
       </c>
       <c r="W24" t="n">
-        <v>14.53376006671532</v>
+        <v>13.99545286153921</v>
       </c>
       <c r="X24" t="n">
-        <v>21.64944081475809</v>
+        <v>22.3464786135385</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.70615180349146</v>
+        <v>16.61517063572665</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.78104331975525</v>
+        <v>14.57488539059941</v>
       </c>
       <c r="AA24" t="n">
-        <v>10.97331487004451</v>
+        <v>27.35333149970624</v>
       </c>
       <c r="AB24" t="n">
-        <v>21.30261686370884</v>
+        <v>32.17886380678259</v>
       </c>
       <c r="AC24" t="n">
-        <v>16.77334881178292</v>
+        <v>10.78014486256114</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.53985600896463</v>
+        <v>3.72359369236272</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.88800144708888</v>
+        <v>13.5522220729589</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.84141515083064</v>
+        <v>20.36660776395464</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.73850542470533</v>
+        <v>8.163270796148117</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.97011553922624</v>
+        <v>6.838302794172908</v>
       </c>
       <c r="AI24" t="n">
-        <v>10.85939089042127</v>
+        <v>19.25207133726286</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15.57232887019283</v>
+        <v>12.15140026518982</v>
       </c>
       <c r="AK24" t="n">
-        <v>5.765494511166949</v>
+        <v>3.684720044082995</v>
       </c>
       <c r="AL24" t="n">
-        <v>9.676721410372579</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>13.32300997609441</v>
+        <v>4.589966976728272</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.738358756317053</v>
+        <v>9.935277415716843</v>
       </c>
       <c r="AO24" t="n">
-        <v>2.863344707725634</v>
+        <v>1.956534434848537</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.800331716993159</v>
+        <v>5.430031359549857</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.938533116204094</v>
+        <v>3.617203171864761</v>
       </c>
       <c r="AR24" t="n">
-        <v>7.395940944803748</v>
+        <v>1.628032983144469</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.204036784242243</v>
+        <v>1.372103970777091</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.834145595842037</v>
+        <v>1.651262774562965</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.715126591585207</v>
+        <v>3.779111669438018</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.124043708095662</v>
+        <v>3.3177981579876</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.773567051082802</v>
+        <v>4.641650839017672</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.70711471220121</v>
+        <v>1.331339996745166</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>27.04663332000882</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.108084328328486</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.129708204879937</v>
+        <v>10.29061232960765</v>
       </c>
       <c r="F25" t="n">
-        <v>2.472461943657185</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>15.24913707809604</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39.32061181136248</v>
+        <v>43.50865721903224</v>
       </c>
       <c r="I25" t="n">
-        <v>20.32035184872411</v>
+        <v>31.72799597816771</v>
       </c>
       <c r="J25" t="n">
-        <v>18.38308116805432</v>
+        <v>20.06272444516032</v>
       </c>
       <c r="K25" t="n">
-        <v>32.85766403673928</v>
+        <v>96.80063692740688</v>
       </c>
       <c r="L25" t="n">
-        <v>14.47416683512098</v>
+        <v>39.42711368428026</v>
       </c>
       <c r="M25" t="n">
-        <v>43.43670004948229</v>
+        <v>33.29731911286105</v>
       </c>
       <c r="N25" t="n">
-        <v>0.177731292228879</v>
+        <v>25.87266549726346</v>
       </c>
       <c r="O25" t="n">
-        <v>42.56125261638368</v>
+        <v>39.10787976612556</v>
       </c>
       <c r="P25" t="n">
-        <v>44.5842328769683</v>
+        <v>14.92415243107859</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.8953811570545</v>
+        <v>8.011680612287886</v>
       </c>
       <c r="R25" t="n">
-        <v>21.15791134754201</v>
+        <v>34.44431475437476</v>
       </c>
       <c r="S25" t="n">
-        <v>48.22941930520392</v>
+        <v>49.3465566202194</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>19.31063849764486</v>
       </c>
       <c r="U25" t="n">
-        <v>43.26642122238758</v>
+        <v>24.30095842919141</v>
       </c>
       <c r="V25" t="n">
-        <v>29.81406728584895</v>
+        <v>44.60744038823192</v>
       </c>
       <c r="W25" t="n">
-        <v>24.56429436163157</v>
+        <v>21.59110238922426</v>
       </c>
       <c r="X25" t="n">
-        <v>23.0242445149374</v>
+        <v>14.28226040880127</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1485948157602826</v>
+        <v>11.13279873324227</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.66614096520453</v>
+        <v>18.06297191421008</v>
       </c>
       <c r="AA25" t="n">
-        <v>55.8244412908068</v>
+        <v>10.50005966252895</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.16615717245388</v>
+        <v>35.87747995604012</v>
       </c>
       <c r="AC25" t="n">
-        <v>70.70710379360011</v>
+        <v>16.90747624603139</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.61374449696349</v>
+        <v>3.141905072960884</v>
       </c>
       <c r="AE25" t="n">
-        <v>11.34244457853204</v>
+        <v>4.119238989917489</v>
       </c>
       <c r="AF25" t="n">
-        <v>4.173386211360137</v>
+        <v>9.376338622928561</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.6162450278840383</v>
+        <v>14.28932695875365</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.875070806328979</v>
+        <v>3.321896835877006</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.2179011755786033</v>
+        <v>0.335915663469894</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>30.60009347822347</v>
       </c>
       <c r="AK25" t="n">
-        <v>13.88214624844315</v>
+        <v>4.17325445663873</v>
       </c>
       <c r="AL25" t="n">
-        <v>47.63686317067798</v>
+        <v>24.55858609085735</v>
       </c>
       <c r="AM25" t="n">
-        <v>14.78754232311267</v>
+        <v>3.181511676661223</v>
       </c>
       <c r="AN25" t="n">
-        <v>12.19297703188118</v>
+        <v>2.802888365700069</v>
       </c>
       <c r="AO25" t="n">
-        <v>15.4551329102445</v>
+        <v>4.153358679495057</v>
       </c>
       <c r="AP25" t="n">
-        <v>6.568734097731888</v>
+        <v>1.680101369289839</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8.307461591119655</v>
+        <v>7.003412757459005</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.318974050060789</v>
+        <v>2.887283776932972</v>
       </c>
       <c r="AS25" t="n">
-        <v>6.787887841290298</v>
+        <v>6.245868012175889</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>2.179811404175563</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>2.305489011109621</v>
       </c>
       <c r="AV25" t="n">
-        <v>27.71504225320503</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.830295371972598</v>
+        <v>20.6494197125982</v>
       </c>
       <c r="AX25" t="n">
-        <v>6.310458570157254</v>
+        <v>4.00358712766014</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>21.83640261347087</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>23.52741771811795</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>18.4101738918588</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>159.8284089870393</v>
+        <v>6.990253852904359</v>
       </c>
       <c r="G26" t="n">
-        <v>19.25075757007877</v>
+        <v>21.65742576336072</v>
       </c>
       <c r="H26" t="n">
-        <v>81.83738085072568</v>
+        <v>9.522145688462599</v>
       </c>
       <c r="I26" t="n">
-        <v>33.813304027378</v>
+        <v>189.8962892377127</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>75.5015924771003</v>
       </c>
       <c r="K26" t="n">
-        <v>103.6915210118995</v>
+        <v>41.09334851429352</v>
       </c>
       <c r="L26" t="n">
-        <v>62.05585496586332</v>
+        <v>61.02883741304572</v>
       </c>
       <c r="M26" t="n">
-        <v>36.86235940973513</v>
+        <v>39.40628434547396</v>
       </c>
       <c r="N26" t="n">
-        <v>302.1583934657496</v>
+        <v>100.4520395930545</v>
       </c>
       <c r="O26" t="n">
-        <v>41.24695977157412</v>
+        <v>94.60076636866907</v>
       </c>
       <c r="P26" t="n">
-        <v>4.454034730611717</v>
+        <v>185.4030283047867</v>
       </c>
       <c r="Q26" t="n">
-        <v>39.00134056310763</v>
+        <v>0.1210105146496758</v>
       </c>
       <c r="R26" t="n">
-        <v>54.02201893291094</v>
+        <v>52.70281916691034</v>
       </c>
       <c r="S26" t="n">
-        <v>71.84750508236797</v>
+        <v>42.12350443237798</v>
       </c>
       <c r="T26" t="n">
-        <v>63.59545514988866</v>
+        <v>58.67232912798245</v>
       </c>
       <c r="U26" t="n">
-        <v>39.3670234832938</v>
+        <v>35.85264828832338</v>
       </c>
       <c r="V26" t="n">
-        <v>53.38396493530029</v>
+        <v>255.3987422455257</v>
       </c>
       <c r="W26" t="n">
-        <v>81.11534266437694</v>
+        <v>30.5025303682864</v>
       </c>
       <c r="X26" t="n">
-        <v>68.25496246274095</v>
+        <v>31.69155788881205</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.46349126403524</v>
+        <v>44.56823071272407</v>
       </c>
       <c r="Z26" t="n">
-        <v>67.52948184272302</v>
+        <v>74.32749705229512</v>
       </c>
       <c r="AA26" t="n">
-        <v>30.6233177985894</v>
+        <v>107.1642977141925</v>
       </c>
       <c r="AB26" t="n">
-        <v>111.2936157758368</v>
+        <v>104.848597482749</v>
       </c>
       <c r="AC26" t="n">
-        <v>95.60333816397835</v>
+        <v>127.7535423244927</v>
       </c>
       <c r="AD26" t="n">
-        <v>119.2986614582579</v>
+        <v>104.127163387479</v>
       </c>
       <c r="AE26" t="n">
-        <v>109.8711431956246</v>
+        <v>140.7399762011592</v>
       </c>
       <c r="AF26" t="n">
-        <v>118.0342289504075</v>
+        <v>155.7121056767793</v>
       </c>
       <c r="AG26" t="n">
-        <v>129.0552044984783</v>
+        <v>125.259551495249</v>
       </c>
       <c r="AH26" t="n">
-        <v>109.9694916812868</v>
+        <v>143.7927861700119</v>
       </c>
       <c r="AI26" t="n">
-        <v>27.28315398632015</v>
+        <v>31.60042987184367</v>
       </c>
       <c r="AJ26" t="n">
-        <v>91.38975123922364</v>
+        <v>7.629266648606833</v>
       </c>
       <c r="AK26" t="n">
-        <v>41.60861362424397</v>
+        <v>136.1155872622925</v>
       </c>
       <c r="AL26" t="n">
-        <v>67.86883020228231</v>
+        <v>47.31369870828148</v>
       </c>
       <c r="AM26" t="n">
-        <v>39.05266102787534</v>
+        <v>6.517603716654378</v>
       </c>
       <c r="AN26" t="n">
-        <v>25.41063895760875</v>
+        <v>56.42924141356035</v>
       </c>
       <c r="AO26" t="n">
-        <v>35.35525740665685</v>
+        <v>28.98035490097247</v>
       </c>
       <c r="AP26" t="n">
-        <v>31.89463414675061</v>
+        <v>20.25815673575301</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15.02115076612569</v>
+        <v>17.61877693884794</v>
       </c>
       <c r="AR26" t="n">
-        <v>18.11323280512583</v>
+        <v>22.96832546519876</v>
       </c>
       <c r="AS26" t="n">
-        <v>23.02378430031744</v>
+        <v>24.34055154644063</v>
       </c>
       <c r="AT26" t="n">
-        <v>14.96594796869588</v>
+        <v>12.89516031046254</v>
       </c>
       <c r="AU26" t="n">
-        <v>20.63293849449281</v>
+        <v>29.9236426113334</v>
       </c>
       <c r="AV26" t="n">
-        <v>30.99868528521379</v>
+        <v>18.52956856631431</v>
       </c>
       <c r="AW26" t="n">
-        <v>18.12970263601393</v>
+        <v>15.20025766927811</v>
       </c>
       <c r="AX26" t="n">
-        <v>32.31618160213247</v>
+        <v>14.82303526195222</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.779064750599873</v>
+        <v>3.73837030715301</v>
       </c>
       <c r="D27" t="n">
-        <v>2.617568375377419</v>
+        <v>3.130210875762644</v>
       </c>
       <c r="E27" t="n">
-        <v>2.90178205724464</v>
+        <v>9.280928569570225</v>
       </c>
       <c r="F27" t="n">
-        <v>7.834315781304467</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7093657146067018</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6.359529915766863</v>
+        <v>3.068874884877718</v>
       </c>
       <c r="I27" t="n">
-        <v>2.362343142804853</v>
+        <v>5.822430565792937</v>
       </c>
       <c r="J27" t="n">
-        <v>1.838965926375808</v>
+        <v>1.085613616942361</v>
       </c>
       <c r="K27" t="n">
-        <v>2.735156301719999</v>
+        <v>3.291410678920383</v>
       </c>
       <c r="L27" t="n">
-        <v>6.837334468034793</v>
+        <v>2.452459109265828</v>
       </c>
       <c r="M27" t="n">
-        <v>1.674435172433481</v>
+        <v>6.788141277911372</v>
       </c>
       <c r="N27" t="n">
-        <v>3.055595381738013</v>
+        <v>5.71922357665814</v>
       </c>
       <c r="O27" t="n">
-        <v>6.771329624307643</v>
+        <v>3.602563967711797</v>
       </c>
       <c r="P27" t="n">
-        <v>4.80813200297654</v>
+        <v>2.234839092553217</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.596952649571834</v>
+        <v>5.245992119393063</v>
       </c>
       <c r="R27" t="n">
-        <v>4.303955893665233</v>
+        <v>4.430259973602511</v>
       </c>
       <c r="S27" t="n">
-        <v>3.561532099258728</v>
+        <v>2.896014829261325</v>
       </c>
       <c r="T27" t="n">
-        <v>2.725347547765653</v>
+        <v>5.398147758090308</v>
       </c>
       <c r="U27" t="n">
-        <v>4.596350745816223</v>
+        <v>3.129669413587478</v>
       </c>
       <c r="V27" t="n">
-        <v>5.835392092885447</v>
+        <v>1.642850740712283</v>
       </c>
       <c r="W27" t="n">
-        <v>4.713753937403631</v>
+        <v>6.285205661822864</v>
       </c>
       <c r="X27" t="n">
-        <v>3.772231830510343</v>
+        <v>3.796273045322667</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.899325553038323</v>
+        <v>6.019393396300612</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.8081698391552186</v>
+        <v>5.033357100433353</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.530930751644864</v>
+        <v>2.088381688788288</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.160324967112758</v>
+        <v>6.467935972752421</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.865833328391083</v>
+        <v>6.469317238106469</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.933787186430064</v>
+        <v>2.010715899632533</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.062083689046307</v>
+        <v>6.330179673269423</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.527386190841968</v>
+        <v>3.749716704703025</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.620901957954395</v>
+        <v>6.651158646646753</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.225951417619259</v>
+        <v>4.000828832026023</v>
       </c>
       <c r="AI27" t="n">
-        <v>11.525367848393</v>
+        <v>11.96394347802443</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.598740877199269</v>
+        <v>1.944782115607307</v>
       </c>
       <c r="AK27" t="n">
-        <v>7.317989947509899</v>
+        <v>4.642684298312295</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.875891098793827</v>
+        <v>4.150531395659798</v>
       </c>
       <c r="AM27" t="n">
-        <v>3.562069498683727</v>
+        <v>4.512215075170405</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.699657008027184</v>
+        <v>4.362089641513998</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.787678822693764</v>
+        <v>3.295197442454894</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.520872487235755</v>
+        <v>3.921866608544419</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3.858792360601818</v>
+        <v>0.0929878218477842</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.582757234794</v>
+        <v>5.135497435454227</v>
       </c>
       <c r="AS27" t="n">
-        <v>6.681982947308751</v>
+        <v>3.08795359653502</v>
       </c>
       <c r="AT27" t="n">
-        <v>11.35740331917594</v>
+        <v>4.747391497313393</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.116879576463873</v>
+        <v>2.14668255346948</v>
       </c>
       <c r="AV27" t="n">
-        <v>4.090408054544689</v>
+        <v>3.769792608829827</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.522252056992091</v>
+        <v>5.542259595815568</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.416783710338457</v>
+        <v>1.502229171274659</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>13.40320469359673</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.976590001801549</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.301210073530306</v>
+        <v>20.38307930502351</v>
       </c>
       <c r="F28" t="n">
-        <v>15.81444078124498</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>14.65757162069121</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.83764508012725</v>
+        <v>1.126306543494985</v>
       </c>
       <c r="I28" t="n">
-        <v>31.75682460424818</v>
+        <v>10.84987015300532</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>35.07978484970629</v>
+        <v>98.36626585735246</v>
       </c>
       <c r="L28" t="n">
-        <v>53.6053748392299</v>
+        <v>126.6811298398016</v>
       </c>
       <c r="M28" t="n">
-        <v>128.8768505691351</v>
+        <v>40.75677006497774</v>
       </c>
       <c r="N28" t="n">
-        <v>119.9019340329443</v>
+        <v>2.860411598222512</v>
       </c>
       <c r="O28" t="n">
-        <v>83.71615572132892</v>
+        <v>81.70792755995987</v>
       </c>
       <c r="P28" t="n">
-        <v>74.07111014767297</v>
+        <v>203.7652102208981</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.08734801789119</v>
+        <v>220.9043161111613</v>
       </c>
       <c r="R28" t="n">
-        <v>53.06142205828628</v>
+        <v>96.2465325119516</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56275130061275</v>
+        <v>49.22964746121063</v>
       </c>
       <c r="T28" t="n">
-        <v>52.93550583086123</v>
+        <v>65.9686139650143</v>
       </c>
       <c r="U28" t="n">
-        <v>51.91790263657165</v>
+        <v>63.60692898873346</v>
       </c>
       <c r="V28" t="n">
-        <v>48.28389349208138</v>
+        <v>39.37573840759872</v>
       </c>
       <c r="W28" t="n">
-        <v>16.72958670134373</v>
+        <v>57.68568360365006</v>
       </c>
       <c r="X28" t="n">
-        <v>64.51476410814777</v>
+        <v>86.43897094880131</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.56524387313668</v>
+        <v>15.87400674125773</v>
       </c>
       <c r="Z28" t="n">
-        <v>79.89419483467238</v>
+        <v>7.262686693774285</v>
       </c>
       <c r="AA28" t="n">
-        <v>47.80831194009959</v>
+        <v>66.94652932033982</v>
       </c>
       <c r="AB28" t="n">
-        <v>42.9531732158769</v>
+        <v>72.92667733162847</v>
       </c>
       <c r="AC28" t="n">
-        <v>78.28980014638078</v>
+        <v>17.04788261431374</v>
       </c>
       <c r="AD28" t="n">
-        <v>54.0159658575803</v>
+        <v>48.2576846618913</v>
       </c>
       <c r="AE28" t="n">
-        <v>122.2048110135581</v>
+        <v>100.3220773037322</v>
       </c>
       <c r="AF28" t="n">
-        <v>90.28961495882895</v>
+        <v>35.2969885570233</v>
       </c>
       <c r="AG28" t="n">
-        <v>119.4726277816928</v>
+        <v>114.877747994328</v>
       </c>
       <c r="AH28" t="n">
-        <v>45.26814160330473</v>
+        <v>42.86017436985354</v>
       </c>
       <c r="AI28" t="n">
-        <v>54.18250939618621</v>
+        <v>26.23585322576547</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38.80604446536262</v>
+        <v>121.3956800568335</v>
       </c>
       <c r="AK28" t="n">
-        <v>46.97443107974412</v>
+        <v>18.55479226434312</v>
       </c>
       <c r="AL28" t="n">
-        <v>30.74875596046217</v>
+        <v>64.48339585061601</v>
       </c>
       <c r="AM28" t="n">
-        <v>44.98204328982438</v>
+        <v>34.49891803472409</v>
       </c>
       <c r="AN28" t="n">
-        <v>33.31096932540567</v>
+        <v>9.99364477323051</v>
       </c>
       <c r="AO28" t="n">
-        <v>18.64238768784197</v>
+        <v>17.54905586681921</v>
       </c>
       <c r="AP28" t="n">
-        <v>9.036694607783126</v>
+        <v>9.317491384593323</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10.09268335783916</v>
+        <v>28.58103057771175</v>
       </c>
       <c r="AR28" t="n">
-        <v>39.83753442763578</v>
+        <v>16.78119683838003</v>
       </c>
       <c r="AS28" t="n">
-        <v>8.088692387993296</v>
+        <v>9.827497223450663</v>
       </c>
       <c r="AT28" t="n">
-        <v>10.91552015803388</v>
+        <v>11.59922148793702</v>
       </c>
       <c r="AU28" t="n">
-        <v>10.57179583690642</v>
+        <v>9.635165976350995</v>
       </c>
       <c r="AV28" t="n">
-        <v>11.48656979807097</v>
+        <v>12.064018439634</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.193914653210969</v>
+        <v>13.96280308508509</v>
       </c>
       <c r="AX28" t="n">
-        <v>14.20109652348488</v>
+        <v>10.39770680327002</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>26.68134839344109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>11.16760490697002</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>25.8990586661432</v>
       </c>
       <c r="F29" t="n">
-        <v>23.35702645629236</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>27.75226901233098</v>
+        <v>1.08951467309024</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>37.25591386356366</v>
       </c>
       <c r="I29" t="n">
-        <v>81.30775126844256</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.73230719310814</v>
+        <v>47.60909007849895</v>
       </c>
       <c r="K29" t="n">
-        <v>101.4988958910739</v>
+        <v>45.32252922058902</v>
       </c>
       <c r="L29" t="n">
-        <v>5.836067091845537</v>
+        <v>41.21730429871931</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6.431679472949707</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>8.71999130077573</v>
       </c>
       <c r="O29" t="n">
-        <v>124.0920095058452</v>
+        <v>69.77349991316706</v>
       </c>
       <c r="P29" t="n">
-        <v>35.87382399754304</v>
+        <v>60.46754344781972</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.38792851471065</v>
+        <v>139.9300167475414</v>
       </c>
       <c r="R29" t="n">
-        <v>40.11258560906767</v>
+        <v>84.97535403262526</v>
       </c>
       <c r="S29" t="n">
-        <v>53.0260412808426</v>
+        <v>53.72995242806297</v>
       </c>
       <c r="T29" t="n">
-        <v>51.35634064247822</v>
+        <v>93.35798709540555</v>
       </c>
       <c r="U29" t="n">
-        <v>78.98189392280902</v>
+        <v>57.93740161924723</v>
       </c>
       <c r="V29" t="n">
-        <v>37.84687418362346</v>
+        <v>16.09433293806369</v>
       </c>
       <c r="W29" t="n">
-        <v>47.09747516849323</v>
+        <v>109.008956491472</v>
       </c>
       <c r="X29" t="n">
-        <v>4.589005974700844</v>
+        <v>39.21244461542314</v>
       </c>
       <c r="Y29" t="n">
-        <v>75.85465986256114</v>
+        <v>58.92689978249228</v>
       </c>
       <c r="Z29" t="n">
-        <v>105.451445741503</v>
+        <v>18.72222398080854</v>
       </c>
       <c r="AA29" t="n">
-        <v>42.03276463775292</v>
+        <v>18.16406962356844</v>
       </c>
       <c r="AB29" t="n">
-        <v>38.18066548305558</v>
+        <v>23.16655718668436</v>
       </c>
       <c r="AC29" t="n">
-        <v>44.15623440849306</v>
+        <v>48.9697736813402</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.462217748036963</v>
+        <v>24.69621774029282</v>
       </c>
       <c r="AE29" t="n">
-        <v>149.4573650777246</v>
+        <v>60.20331068577779</v>
       </c>
       <c r="AF29" t="n">
-        <v>23.66656866223684</v>
+        <v>48.1173724564445</v>
       </c>
       <c r="AG29" t="n">
-        <v>28.27472716982777</v>
+        <v>27.56572176284437</v>
       </c>
       <c r="AH29" t="n">
-        <v>67.50507548091186</v>
+        <v>33.20023060674756</v>
       </c>
       <c r="AI29" t="n">
-        <v>49.97465000184375</v>
+        <v>62.85769080060956</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25.10027083599988</v>
+        <v>49.99083394556789</v>
       </c>
       <c r="AK29" t="n">
-        <v>26.89166179366607</v>
+        <v>16.50655026609975</v>
       </c>
       <c r="AL29" t="n">
-        <v>12.20542679122011</v>
+        <v>32.0004434678556</v>
       </c>
       <c r="AM29" t="n">
-        <v>23.93083207246218</v>
+        <v>15.47121953300511</v>
       </c>
       <c r="AN29" t="n">
-        <v>36.83114813054207</v>
+        <v>22.37377078142038</v>
       </c>
       <c r="AO29" t="n">
-        <v>24.40255858030021</v>
+        <v>7.594945025005673</v>
       </c>
       <c r="AP29" t="n">
-        <v>20.40555702270732</v>
+        <v>27.38759324044147</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.393290532852743</v>
+        <v>21.92960053685214</v>
       </c>
       <c r="AR29" t="n">
-        <v>34.36993669222715</v>
+        <v>3.784304549067926</v>
       </c>
       <c r="AS29" t="n">
-        <v>25.29069070703175</v>
+        <v>30.68245417469884</v>
       </c>
       <c r="AT29" t="n">
-        <v>29.68626594215752</v>
+        <v>40.49701787933066</v>
       </c>
       <c r="AU29" t="n">
-        <v>11.73973716144747</v>
+        <v>30.8370797571253</v>
       </c>
       <c r="AV29" t="n">
-        <v>13.95914081114233</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>18.08519639290506</v>
+        <v>26.66019295981589</v>
       </c>
       <c r="AX29" t="n">
-        <v>20.90998506909809</v>
+        <v>24.22958015299336</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2.484120394698039</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.135763460429116</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>29.29760535605327</v>
+        <v>6.536915537804463</v>
       </c>
       <c r="F30" t="n">
-        <v>26.94787902631318</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.844684320680325</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>13.56292926136728</v>
+        <v>6.947149090318607</v>
       </c>
       <c r="I30" t="n">
-        <v>7.200043444413986</v>
+        <v>7.580833975173991</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>23.64803713647222</v>
       </c>
       <c r="K30" t="n">
-        <v>11.12797669414022</v>
+        <v>0.022253858496736</v>
       </c>
       <c r="L30" t="n">
-        <v>11.76494169837101</v>
+        <v>17.00705417016265</v>
       </c>
       <c r="M30" t="n">
-        <v>59.95685482032608</v>
+        <v>63.33546275670146</v>
       </c>
       <c r="N30" t="n">
-        <v>25.42443089567698</v>
+        <v>38.07688581171326</v>
       </c>
       <c r="O30" t="n">
-        <v>27.35412674716834</v>
+        <v>72.11372442650274</v>
       </c>
       <c r="P30" t="n">
-        <v>36.4487027861909</v>
+        <v>12.42466896256836</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.11198610592122</v>
+        <v>51.65342302941796</v>
       </c>
       <c r="R30" t="n">
-        <v>35.97496204936233</v>
+        <v>13.59318970211728</v>
       </c>
       <c r="S30" t="n">
-        <v>40.42286336968706</v>
+        <v>13.05963661506856</v>
       </c>
       <c r="T30" t="n">
-        <v>6.945790890806101</v>
+        <v>7.627440228181539</v>
       </c>
       <c r="U30" t="n">
-        <v>45.4325590344557</v>
+        <v>27.87885556274903</v>
       </c>
       <c r="V30" t="n">
-        <v>14.08267326753769</v>
+        <v>33.0252383738092</v>
       </c>
       <c r="W30" t="n">
-        <v>17.52420376698386</v>
+        <v>19.07198030380181</v>
       </c>
       <c r="X30" t="n">
-        <v>10.19262134695731</v>
+        <v>27.1161949197586</v>
       </c>
       <c r="Y30" t="n">
-        <v>27.10314821763364</v>
+        <v>13.83585030386157</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.78465517761018</v>
+        <v>21.96516301930541</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.05236105083423</v>
+        <v>15.5670228166976</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.70832036789463</v>
+        <v>17.83454807813033</v>
       </c>
       <c r="AC30" t="n">
-        <v>25.4597087533239</v>
+        <v>16.61346805057067</v>
       </c>
       <c r="AD30" t="n">
-        <v>36.0597854976388</v>
+        <v>13.44140272625384</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.55993352509654</v>
+        <v>14.17325732950384</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.00070126390741</v>
+        <v>14.77297563665715</v>
       </c>
       <c r="AG30" t="n">
-        <v>4.32054015714448</v>
+        <v>16.852982660317</v>
       </c>
       <c r="AH30" t="n">
-        <v>12.73927265134665</v>
+        <v>2.997211112726101</v>
       </c>
       <c r="AI30" t="n">
-        <v>12.99423207247595</v>
+        <v>18.33769180111362</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4.450912442991121</v>
+        <v>8.309777670579011</v>
       </c>
       <c r="AK30" t="n">
-        <v>5.800003664136169</v>
+        <v>3.924366683078308</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.924054632710396</v>
+        <v>8.914659144177524</v>
       </c>
       <c r="AM30" t="n">
-        <v>7.679893663495908</v>
+        <v>8.364378615783341</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.294699626902242</v>
+        <v>1.985143353553461</v>
       </c>
       <c r="AO30" t="n">
-        <v>2.349270102325554</v>
+        <v>2.034444912396006</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.912115099553434</v>
+        <v>2.577483015029996</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.175386655789084</v>
+        <v>3.289363504860451</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.9537388730351555</v>
+        <v>1.782114537011758</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.199095161885741</v>
+        <v>2.580344878634406</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.642570615043876</v>
+        <v>1.787303298536305</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.070554609194609</v>
+        <v>3.536417980033963</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.4065309838799717</v>
+        <v>3.892775816807651</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.074242971827515</v>
+        <v>23.92545791284798</v>
       </c>
       <c r="AX30" t="n">
-        <v>4.023044107328891</v>
+        <v>3.408778273785593</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>28.08410796025824</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.772778588337299</v>
+        <v>4.859745532219923</v>
       </c>
       <c r="E31" t="n">
-        <v>5.487413600406659</v>
+        <v>8.59014329272404</v>
       </c>
       <c r="F31" t="n">
-        <v>5.310072644951868</v>
+        <v>24.82926505944285</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>47.31488802723899</v>
       </c>
       <c r="H31" t="n">
-        <v>44.1711265116583</v>
+        <v>10.26391186577055</v>
       </c>
       <c r="I31" t="n">
-        <v>13.84591169268964</v>
+        <v>40.8302718594842</v>
       </c>
       <c r="J31" t="n">
-        <v>32.40353190055487</v>
+        <v>9.58567235499971</v>
       </c>
       <c r="K31" t="n">
-        <v>65.35380140199182</v>
+        <v>40.88794500693653</v>
       </c>
       <c r="L31" t="n">
-        <v>13.54954667567954</v>
+        <v>14.75411832958376</v>
       </c>
       <c r="M31" t="n">
-        <v>17.57336439536901</v>
+        <v>6.195867984868032</v>
       </c>
       <c r="N31" t="n">
-        <v>86.16935189327157</v>
+        <v>28.45250485234047</v>
       </c>
       <c r="O31" t="n">
-        <v>14.67457952033342</v>
+        <v>15.85197369795693</v>
       </c>
       <c r="P31" t="n">
-        <v>25.50340856049466</v>
+        <v>98.47082769664263</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.21238194298313</v>
+        <v>45.85412293497509</v>
       </c>
       <c r="R31" t="n">
-        <v>39.94100981792613</v>
+        <v>88.27046710863189</v>
       </c>
       <c r="S31" t="n">
-        <v>50.48834879775803</v>
+        <v>50.70294508782165</v>
       </c>
       <c r="T31" t="n">
-        <v>38.48232292958457</v>
+        <v>21.13117708794902</v>
       </c>
       <c r="U31" t="n">
-        <v>36.15025793491178</v>
+        <v>25.14065007141343</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>29.21931962707234</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8105493025220245</v>
+        <v>0.2921104820566407</v>
       </c>
       <c r="X31" t="n">
-        <v>6.909024939780181</v>
+        <v>22.2275670543443</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.50999593367504</v>
+        <v>4.939593031940077</v>
       </c>
       <c r="Z31" t="n">
-        <v>69.51450212493666</v>
+        <v>10.59625030713297</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>18.59991648230452</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.94208915069672</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>15.4750418859436</v>
+        <v>5.450307417622562</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.791167086336209</v>
+        <v>9.725833411629145</v>
       </c>
       <c r="AE31" t="n">
-        <v>6.843091773567632</v>
+        <v>44.88117095466271</v>
       </c>
       <c r="AF31" t="n">
-        <v>23.19386368245943</v>
+        <v>9.497107397661269</v>
       </c>
       <c r="AG31" t="n">
-        <v>20.94226355035723</v>
+        <v>11.30845059850574</v>
       </c>
       <c r="AH31" t="n">
-        <v>25.53877135630857</v>
+        <v>18.34385656163595</v>
       </c>
       <c r="AI31" t="n">
-        <v>3.649762625073913</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3.245614618655743</v>
+        <v>18.24774291817138</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.431587984633083</v>
+        <v>7.821355703892097</v>
       </c>
       <c r="AL31" t="n">
-        <v>22.77350871459262</v>
+        <v>2.630115818034755</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.697977758245184</v>
+        <v>8.560894638765951</v>
       </c>
       <c r="AN31" t="n">
-        <v>9.751089452423173</v>
+        <v>17.06050091227116</v>
       </c>
       <c r="AO31" t="n">
-        <v>16.84375663667223</v>
+        <v>4.87795831841685</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>68.00286059280357</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.115014886100287</v>
+        <v>9.24438406878004</v>
       </c>
       <c r="AS31" t="n">
-        <v>8.250014601970658</v>
+        <v>13.38386323076279</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.23426061573977</v>
+        <v>11.37521283549437</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.195056252303312</v>
+        <v>9.75725485614271</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.920460194777577</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>2.819798228983367</v>
+        <v>8.346583019612586</v>
       </c>
       <c r="AX31" t="n">
-        <v>14.471867102724</v>
+        <v>10.38539623728813</v>
       </c>
     </row>
   </sheetData>
